--- a/data/Wordle Group Results.xlsx
+++ b/data/Wordle Group Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bspencer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bspencer\Documents\GitHub\wordle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E70714-93B0-4258-99C6-126C8398742D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C8F2C-1E18-4FD0-978A-174EE9CEA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="1" xr2:uid="{9CF507EB-1BFD-487F-B619-C1323D8E19B5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="735">
   <si>
     <t>Date</t>
   </si>
@@ -2431,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2463,95 +2463,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="157">
     <dxf>
       <fill>
         <patternFill>
@@ -5139,6 +5057,51 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5347,28 +5310,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}" name="Season3Overall" displayName="Season3Overall" ref="A28:P35" totalsRowShown="0" tableBorderDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}" name="Season3Overall" displayName="Season3Overall" ref="A28:P35" totalsRowShown="0" tableBorderDxfId="156">
   <autoFilter ref="A28:P35" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{787A8264-823A-47E4-B9D7-075FCFFF6828}" name="Person:"/>
-    <tableColumn id="2" xr3:uid="{33F48620-3BB9-4D66-B57B-E36193561677}" name="Solo" dataDxfId="159">
+    <tableColumn id="2" xr3:uid="{33F48620-3BB9-4D66-B57B-E36193561677}" name="Solo" dataDxfId="155">
       <calculatedColumnFormula>COUNTIF(Season3Data[Winner],Season3Overall[[#This Row],[Person:]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1474E27B-A731-46F7-ACA8-C091FF0E6F7B}" name="Shared"/>
-    <tableColumn id="4" xr3:uid="{7787921F-E98A-412C-932D-0F895DC9C575}" name="Uncontested Wins" dataDxfId="158">
+    <tableColumn id="4" xr3:uid="{7787921F-E98A-412C-932D-0F895DC9C575}" name="Uncontested Wins" dataDxfId="154">
       <calculatedColumnFormula>SUMPRODUCT(--(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]]),--(Season3Data[Tiebreakers]=FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3CA18517-D7AC-4996-AD73-13E98CF734C2}" name="Contested Wins" dataDxfId="157">
+    <tableColumn id="5" xr3:uid="{3CA18517-D7AC-4996-AD73-13E98CF734C2}" name="Contested Wins" dataDxfId="153">
       <calculatedColumnFormula>SUMPRODUCT(--(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]]),--(Season3Data[Tiebreakers]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6CB8E667-2CDE-45CF-BE70-21D3ADCCEB57}" name="Column1"/>
-    <tableColumn id="16" xr3:uid="{703C5257-6799-4FDC-A787-116545EC9433}" name="Last Win" dataDxfId="156">
+    <tableColumn id="16" xr3:uid="{703C5257-6799-4FDC-A787-116545EC9433}" name="Last Win" dataDxfId="152">
       <calculatedColumnFormula array="1">MAX(IF(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]],Season3Data[Date]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2A036726-E087-4A16-B913-C0BE952A4447}" name="Days since Last Win" dataDxfId="155">
+    <tableColumn id="15" xr3:uid="{2A036726-E087-4A16-B913-C0BE952A4447}" name="Days since Last Win" dataDxfId="151">
       <calculatedColumnFormula>DATEDIF(Season3Overall[[#This Row],[Last Win]],TODAY(),"d")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A7A2A361-C0A1-483F-B62D-56BE796BADE9}" name="Win Percentage" dataDxfId="154">
+    <tableColumn id="14" xr3:uid="{A7A2A361-C0A1-483F-B62D-56BE796BADE9}" name="Win Percentage" dataDxfId="150">
       <calculatedColumnFormula>Season3Overall[[#This Row],[Solo]]/COUNTIF(Season3Data[Elisabeth],"&lt;&gt;"&amp;"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3E4172AF-23FD-44AB-B380-3F4AF8F3AB58}" name="Unwon Tiebreakers"/>
@@ -5376,10 +5339,10 @@
     <tableColumn id="9" xr3:uid="{304B608E-4097-4ED0-9D67-6AA2BC0BB420}" name="Best Guess"/>
     <tableColumn id="10" xr3:uid="{DFDA1E34-3CA9-4071-95FE-C7F9AFA845DA}" name="Average Guess"/>
     <tableColumn id="11" xr3:uid="{16261267-85CB-4B3E-9310-8E8D52B5A503}" name="Column3"/>
-    <tableColumn id="12" xr3:uid="{45431BBD-96B1-45A5-B4E4-77128BA2D21C}" name="Average Remaining Answers" dataDxfId="153">
+    <tableColumn id="12" xr3:uid="{45431BBD-96B1-45A5-B4E4-77128BA2D21C}" name="Average Remaining Answers" dataDxfId="149">
       <calculatedColumnFormula>AVERAGEIF(Season3Data[Word Picker],Season3Overall[[#This Row],[Person:]],Season3Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FC776735-0D77-4F7E-B4AC-350EEE05633F}" name="Average Response" dataDxfId="152">
+    <tableColumn id="13" xr3:uid="{FC776735-0D77-4F7E-B4AC-350EEE05633F}" name="Average Response" dataDxfId="148">
       <calculatedColumnFormula>AVERAGEIF(Season3Data[Word Picker],Season3Overall[[#This Row],[Person:]],Season3Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5388,73 +5351,73 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}" name="Season1M2" displayName="Season1M2" ref="W37:AP68" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}" name="Season1M2" displayName="Season1M2" ref="W37:AP68" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="W37:AP68" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{91A4EFA4-2063-40D9-84C2-F7584440FE43}" name="Date" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{DA8870E9-E25A-4554-BC15-B14DD1A16926}" name="Word Picker" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{4C5E38BB-39A2-42E9-9F63-59FC862EC4DB}" name="Starter Word" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{1F0D34FF-D64F-472B-927F-9938A660972D}" name="Wordle Answer" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{58338D9D-91A6-4DE5-A94B-6E56F6E5E1A4}" name="Winner" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{B9063691-50B3-4DD8-8E81-1E493DDD2A86}" name="Column1" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{F77F3877-5990-4D3A-8E89-727FCF8F8C0A}" name="Remaining Words" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{C16B93F2-DBAD-4916-BCE5-B0F643272569}" name="Column2" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{49CEC729-D941-445E-931A-EE100FBB09BC}" name="Column3" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{F7140531-CEA9-4C6B-BDBA-FBDA8656A812}" name="Best Guess" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{91A4EFA4-2063-40D9-84C2-F7584440FE43}" name="Date" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{DA8870E9-E25A-4554-BC15-B14DD1A16926}" name="Word Picker" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{4C5E38BB-39A2-42E9-9F63-59FC862EC4DB}" name="Starter Word" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{1F0D34FF-D64F-472B-927F-9938A660972D}" name="Wordle Answer" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{58338D9D-91A6-4DE5-A94B-6E56F6E5E1A4}" name="Winner" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{B9063691-50B3-4DD8-8E81-1E493DDD2A86}" name="Column1" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{F77F3877-5990-4D3A-8E89-727FCF8F8C0A}" name="Remaining Words" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{C16B93F2-DBAD-4916-BCE5-B0F643272569}" name="Column2" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{49CEC729-D941-445E-931A-EE100FBB09BC}" name="Column3" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{F7140531-CEA9-4C6B-BDBA-FBDA8656A812}" name="Best Guess" dataDxfId="40">
       <calculatedColumnFormula>MIN(AI38:AP38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DCC49461-9C93-4854-9ABA-145F4BEEB237}" name="Average Guess" dataDxfId="46">
+    <tableColumn id="11" xr3:uid="{DCC49461-9C93-4854-9ABA-145F4BEEB237}" name="Average Guess" dataDxfId="39">
       <calculatedColumnFormula>AVERAGE(AI38:AP38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BAB35D52-AD94-4972-BFF1-7A383847A0B6}" name="Column4" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{44F55E61-51B6-4555-8207-39118330CE2C}" name="Brian" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{28816C72-F2B9-48A6-9732-B988ABF1E496}" name="Deepa" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{625D6671-0760-444B-9457-8937E90DC6A7}" name="Elisabeth" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{83C475EF-8F23-4715-B1CA-567FA03D2BB6}" name="Kendall" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{F0D9A1A2-CA63-4E3B-88B8-143F0EDDE85A}" name="Kimball" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{A11A0717-243F-49A8-AF39-8BFACEDC08C0}" name="Lee Ann" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{5E225017-4CEA-41EF-AE01-D12550B98D90}" name="Sam" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{CCE31395-6DCF-47FB-893F-B638075C8170}" name="Spencer" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{BAB35D52-AD94-4972-BFF1-7A383847A0B6}" name="Column4" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{44F55E61-51B6-4555-8207-39118330CE2C}" name="Brian" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{28816C72-F2B9-48A6-9732-B988ABF1E496}" name="Deepa" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{625D6671-0760-444B-9457-8937E90DC6A7}" name="Elisabeth" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{83C475EF-8F23-4715-B1CA-567FA03D2BB6}" name="Kendall" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{F0D9A1A2-CA63-4E3B-88B8-143F0EDDE85A}" name="Kimball" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{A11A0717-243F-49A8-AF39-8BFACEDC08C0}" name="Lee Ann" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{5E225017-4CEA-41EF-AE01-D12550B98D90}" name="Sam" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{CCE31395-6DCF-47FB-893F-B638075C8170}" name="Spencer" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}" name="Season1M3" displayName="Season1M3" ref="W71:AP101" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}" name="Season1M3" displayName="Season1M3" ref="W71:AP101" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="W71:AP101" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{AF41E59D-65B0-49ED-A034-EB1A1C5B8244}" name="Date" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A844F5E8-C67B-4583-9671-9E47E4748AA5}" name="Word Picker" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{C65CEE79-37FB-4219-8584-46049887564D}" name="Starter Word" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{F0E28F9F-846F-45AF-AF3A-6D9B87BE2299}" name="Wordle Answer" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{1E808D36-D5A7-457F-9D82-08FC07D9D585}" name="Winner" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{70B7CC56-8815-4442-ADFF-55E96C744A9D}" name="Column1" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{A291F2F5-A3BA-4D69-A6B5-235A3AD349CC}" name="Remaining Words" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{E31E6BC1-5577-4CBA-A907-0277541E7D85}" name="Column2" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{87C35D30-C4A9-4EEF-95C6-AC0480AE7E58}" name="Column3" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{762C5227-B5CA-440E-9FAE-502D7A24CD1C}" name="Best Guess" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{AF41E59D-65B0-49ED-A034-EB1A1C5B8244}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A844F5E8-C67B-4583-9671-9E47E4748AA5}" name="Word Picker" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C65CEE79-37FB-4219-8584-46049887564D}" name="Starter Word" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{F0E28F9F-846F-45AF-AF3A-6D9B87BE2299}" name="Wordle Answer" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{1E808D36-D5A7-457F-9D82-08FC07D9D585}" name="Winner" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{70B7CC56-8815-4442-ADFF-55E96C744A9D}" name="Column1" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A291F2F5-A3BA-4D69-A6B5-235A3AD349CC}" name="Remaining Words" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E31E6BC1-5577-4CBA-A907-0277541E7D85}" name="Column2" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{87C35D30-C4A9-4EEF-95C6-AC0480AE7E58}" name="Column3" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{762C5227-B5CA-440E-9FAE-502D7A24CD1C}" name="Best Guess" dataDxfId="15">
       <calculatedColumnFormula>MIN(AI72:AP72)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{529278C7-2E0E-43B2-AE37-6217D749D690}" name="Average Guess" dataDxfId="21">
+    <tableColumn id="11" xr3:uid="{529278C7-2E0E-43B2-AE37-6217D749D690}" name="Average Guess" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(AI72:AP72)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{591804F3-BAD4-40E2-B836-6EE314E01AC9}" name="Column4" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{CB2E4FE8-52EC-4620-8A2B-D3A2592F4B44}" name="Brian" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{F08F81FD-CF65-4655-875F-265E1DA1CC62}" name="Deepa" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{ADEF8BC0-92ED-4C7B-BE0D-54C81E1E0063}" name="Elisabeth" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{591804F3-BAD4-40E2-B836-6EE314E01AC9}" name="Column4" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{CB2E4FE8-52EC-4620-8A2B-D3A2592F4B44}" name="Brian" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{F08F81FD-CF65-4655-875F-265E1DA1CC62}" name="Deepa" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{ADEF8BC0-92ED-4C7B-BE0D-54C81E1E0063}" name="Elisabeth" dataDxfId="10"/>
     <tableColumn id="16" xr3:uid="{852921F6-B2DC-426F-AC2C-18447962654C}" name="Kendall"/>
-    <tableColumn id="17" xr3:uid="{9076332D-EF05-43AF-A8C1-840BA4EEDECF}" name="Kimball" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{725AE676-45B9-4128-B0C4-83903A688107}" name="Lee Ann" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{5E5E4383-5B18-416E-843A-75D5CAB2EADF}" name="Sam" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{F8840677-8A9E-47A1-97B5-F2776DB508F8}" name="Spencer" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{9076332D-EF05-43AF-A8C1-840BA4EEDECF}" name="Kimball" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{725AE676-45B9-4128-B0C4-83903A688107}" name="Lee Ann" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{5E5E4383-5B18-416E-843A-75D5CAB2EADF}" name="Sam" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{F8840677-8A9E-47A1-97B5-F2776DB508F8}" name="Spencer" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}" name="Season2Overall" displayName="Season2Overall" ref="A15:J23" totalsRowShown="0" tableBorderDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}" name="Season2Overall" displayName="Season2Overall" ref="A15:J23" totalsRowShown="0" tableBorderDxfId="147">
   <autoFilter ref="A15:J23" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{89155E2F-2BA5-41A7-AEE0-36D4C3B6CFD5}" name="Person"/>
@@ -5465,12 +5428,12 @@
     <tableColumn id="4" xr3:uid="{92A0425F-C42A-412A-A949-10D670DF8873}" name="Unwon Tiebreakers"/>
     <tableColumn id="5" xr3:uid="{CEB04F20-D298-4187-B56B-A62A50CD662E}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{3E987C1C-010B-43D6-A370-25C26BC2EB70}" name="Best Guess"/>
-    <tableColumn id="7" xr3:uid="{ABE81DB2-3329-4A7F-8F5B-38F4A164990F}" name="Average Guess" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{ABE81DB2-3329-4A7F-8F5B-38F4A164990F}" name="Average Guess" dataDxfId="146"/>
     <tableColumn id="8" xr3:uid="{84110983-151B-4216-9A59-3FC415F5830C}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{D4C53413-E1F3-4981-A4CD-EA9E94D6BD20}" name="Average Remaining Answers" dataDxfId="149">
+    <tableColumn id="9" xr3:uid="{D4C53413-E1F3-4981-A4CD-EA9E94D6BD20}" name="Average Remaining Answers" dataDxfId="145">
       <calculatedColumnFormula>AVERAGEIF(Season2Data[Word Picker],Overall!A16,Season2Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5175A0C7-4196-48F1-B0C7-F69134B3D4CA}" name="Average Response" dataDxfId="148">
+    <tableColumn id="10" xr3:uid="{5175A0C7-4196-48F1-B0C7-F69134B3D4CA}" name="Average Response" dataDxfId="144">
       <calculatedColumnFormula>AVERAGEIF(Season2Data[Word Picker],A16,Season2Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5479,7 +5442,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}" name="Season1Overall" displayName="Season1Overall" ref="A2:J10" totalsRowShown="0" tableBorderDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}" name="Season1Overall" displayName="Season1Overall" ref="A2:J10" totalsRowShown="0" tableBorderDxfId="143">
   <autoFilter ref="A2:J10" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DC2905F2-16D8-41B5-AB85-265A869CF272}" name="Person"/>
@@ -5504,28 +5467,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}" name="Season4Overall" displayName="Season4Overall" ref="A40:P47" totalsRowShown="0" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}" name="Season4Overall" displayName="Season4Overall" ref="A40:P47" totalsRowShown="0" tableBorderDxfId="142">
   <autoFilter ref="A40:P47" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:P47">
     <sortCondition ref="A40:A47"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{DD76C171-74DA-4C87-B0A1-132854C23CCD}" name="Person:"/>
-    <tableColumn id="2" xr3:uid="{4FCA034B-800C-48EC-8EC4-1E75E88A1166}" name="Solo" dataDxfId="145">
+    <tableColumn id="2" xr3:uid="{4FCA034B-800C-48EC-8EC4-1E75E88A1166}" name="Solo" dataDxfId="141">
       <calculatedColumnFormula>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A293AEBF-B27A-43DB-9D71-12C8AADEF0F5}" name="Shared"/>
-    <tableColumn id="4" xr3:uid="{04D350E6-CF5B-4E6D-A1D9-0F5E93033224}" name="Contested Wins" dataDxfId="144">
+    <tableColumn id="4" xr3:uid="{04D350E6-CF5B-4E6D-A1D9-0F5E93033224}" name="Contested Wins" dataDxfId="140">
       <calculatedColumnFormula>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7A4784D1-63FC-4DEA-AC5E-23BFA36A5FAE}" name="Uncontested Wins" dataDxfId="143">
+    <tableColumn id="5" xr3:uid="{7A4784D1-63FC-4DEA-AC5E-23BFA36A5FAE}" name="Uncontested Wins" dataDxfId="139">
       <calculatedColumnFormula>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F88F562A-23F3-4394-945F-5520C3391AEF}" name="Win Percentage"/>
-    <tableColumn id="16" xr3:uid="{C40F777D-118B-45E1-81AB-01927AF1D6C7}" name="Last Win" dataDxfId="142">
+    <tableColumn id="16" xr3:uid="{C40F777D-118B-45E1-81AB-01927AF1D6C7}" name="Last Win" dataDxfId="138">
       <calculatedColumnFormula array="1">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{CCCDD2DB-85C9-44CA-81F0-5059EDD52543}" name="Days since Last Win" dataDxfId="141">
+    <tableColumn id="15" xr3:uid="{CCCDD2DB-85C9-44CA-81F0-5059EDD52543}" name="Days since Last Win" dataDxfId="137">
       <calculatedColumnFormula array="1">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E0B1E0C4-A9E2-47F2-BE1A-A82A91CE7BDB}" name="Column1"/>
@@ -5534,10 +5497,10 @@
     <tableColumn id="9" xr3:uid="{9E77CF18-7EEA-4387-AA28-C106F679DBEE}" name="Best Guess"/>
     <tableColumn id="10" xr3:uid="{D82E872F-506A-41C5-B177-4A503E60A78E}" name="Average Guess"/>
     <tableColumn id="11" xr3:uid="{0C12E219-CD50-4039-9418-870FD409BED2}" name="Column3"/>
-    <tableColumn id="12" xr3:uid="{16D669DB-C0F3-41CB-8BAD-47C5E5D82992}" name="Average Remaining Answers" dataDxfId="140">
+    <tableColumn id="12" xr3:uid="{16D669DB-C0F3-41CB-8BAD-47C5E5D82992}" name="Average Remaining Answers" dataDxfId="136">
       <calculatedColumnFormula>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DDC76309-5EDB-4C98-BAE3-D5BC22249D9A}" name="Average Response" dataDxfId="139">
+    <tableColumn id="13" xr3:uid="{DDC76309-5EDB-4C98-BAE3-D5BC22249D9A}" name="Average Response" dataDxfId="135">
       <calculatedColumnFormula>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5546,85 +5509,85 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U61" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U61" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
   <autoFilter ref="A1:U61" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U61">
     <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{D04FC2F6-F313-46F9-A978-B491043C01AD}" name="Date" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{738FC48A-347A-45D7-8476-D010FB0345AA}" name="Word Picker" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{F00CF760-9AC0-4FE6-BB16-0223F266A073}" name="Starter Word" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{1A5108EE-E0E8-4BB1-AEDD-F2ECFFF158E0}" name="Wordle Answer" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{F563953A-F559-434B-B03D-13F63DE4D24C}" name="Winner" dataDxfId="130"/>
-    <tableColumn id="21" xr3:uid="{FFB2737F-E8C7-44B8-B23C-F889618F2648}" name="Streak" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{B0BF5D0D-5A5B-4364-A442-42A23B307107}" name="Column1" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{6C316E25-BC3E-48F1-9139-387BCA96F7D2}" name="Remaining Words" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{ACE0A265-82E1-4021-A9E2-0171D9E25554}" name="Column2" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{D648079A-62E4-4FC5-A936-2E9388F46C87}" name="Column3" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{0DE2562C-E63C-40F5-8B4C-08B12D4C9670}" name="Best Guess" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{D04FC2F6-F313-46F9-A978-B491043C01AD}" name="Date" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{738FC48A-347A-45D7-8476-D010FB0345AA}" name="Word Picker" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{F00CF760-9AC0-4FE6-BB16-0223F266A073}" name="Starter Word" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{1A5108EE-E0E8-4BB1-AEDD-F2ECFFF158E0}" name="Wordle Answer" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{F563953A-F559-434B-B03D-13F63DE4D24C}" name="Winner" dataDxfId="126"/>
+    <tableColumn id="21" xr3:uid="{FFB2737F-E8C7-44B8-B23C-F889618F2648}" name="Streak" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{B0BF5D0D-5A5B-4364-A442-42A23B307107}" name="Column1" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{6C316E25-BC3E-48F1-9139-387BCA96F7D2}" name="Remaining Words" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{ACE0A265-82E1-4021-A9E2-0171D9E25554}" name="Column2" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{D648079A-62E4-4FC5-A936-2E9388F46C87}" name="Column3" dataDxfId="121"/>
+    <tableColumn id="10" xr3:uid="{0DE2562C-E63C-40F5-8B4C-08B12D4C9670}" name="Best Guess" dataDxfId="120">
       <calculatedColumnFormula>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DE20A494-41C9-4861-91D5-3AF6A944EAF6}" name="Average Guess" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{DE20A494-41C9-4861-91D5-3AF6A944EAF6}" name="Average Guess" dataDxfId="119">
       <calculatedColumnFormula>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{219BEF09-43DC-4B07-823E-6CCFDD8B838F}" name="Tiebreakers" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{219BEF09-43DC-4B07-823E-6CCFDD8B838F}" name="Tiebreakers" dataDxfId="118">
       <calculatedColumnFormula>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B570C476-06DE-4BED-BC6F-97E72CB6949D}" name="Column4" dataDxfId="124"/>
-    <tableColumn id="13" xr3:uid="{02B90DBF-5D12-48C9-B654-FE6081A546BF}" name="Brian" dataDxfId="123"/>
-    <tableColumn id="15" xr3:uid="{71648C64-8F2C-46C6-A565-89A8F676C787}" name="Elisabeth" dataDxfId="122"/>
-    <tableColumn id="16" xr3:uid="{3D10B21C-4E42-461C-AFC1-D06ACDD36D7D}" name="Kendall" dataDxfId="121"/>
-    <tableColumn id="17" xr3:uid="{2F41515F-B749-42A0-909E-74ADFD0F092E}" name="Kimball" dataDxfId="120"/>
-    <tableColumn id="18" xr3:uid="{606B8E6E-9F4F-4D77-AAE7-D41176748013}" name="Lee Ann" dataDxfId="119"/>
-    <tableColumn id="19" xr3:uid="{2425EEE2-BA2B-426A-812C-44E6FB5F14F0}" name="Sam" dataDxfId="118"/>
-    <tableColumn id="20" xr3:uid="{6CAA2811-F566-45C7-8E51-265492152601}" name="Spencer" dataDxfId="117"/>
+    <tableColumn id="12" xr3:uid="{B570C476-06DE-4BED-BC6F-97E72CB6949D}" name="Column4" dataDxfId="117"/>
+    <tableColumn id="13" xr3:uid="{02B90DBF-5D12-48C9-B654-FE6081A546BF}" name="Brian" dataDxfId="116"/>
+    <tableColumn id="15" xr3:uid="{71648C64-8F2C-46C6-A565-89A8F676C787}" name="Elisabeth" dataDxfId="115"/>
+    <tableColumn id="16" xr3:uid="{3D10B21C-4E42-461C-AFC1-D06ACDD36D7D}" name="Kendall" dataDxfId="114"/>
+    <tableColumn id="17" xr3:uid="{2F41515F-B749-42A0-909E-74ADFD0F092E}" name="Kimball" dataDxfId="113"/>
+    <tableColumn id="18" xr3:uid="{606B8E6E-9F4F-4D77-AAE7-D41176748013}" name="Lee Ann" dataDxfId="112"/>
+    <tableColumn id="19" xr3:uid="{2425EEE2-BA2B-426A-812C-44E6FB5F14F0}" name="Sam" dataDxfId="111"/>
+    <tableColumn id="20" xr3:uid="{6CAA2811-F566-45C7-8E51-265492152601}" name="Spencer" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}" name="Season3Data" displayName="Season3Data" ref="A1:U93" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}" name="Season3Data" displayName="Season3Data" ref="A1:U93" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106">
   <autoFilter ref="A1:U93" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{74A0B8D8-9694-4E7F-939A-637F604F6E42}" name="Date" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{671795D2-28A1-4C1D-B8E1-C3A3B2EBF9CF}" name="Word Picker" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{A424321B-66F5-4AF0-988D-EB4CAD697C82}" name="Starter Word" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{2495DE10-DAFD-4F51-B791-3FCF6CBBF6D4}" name="Wordle Answer" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{2FA9F35E-319F-444A-B2F4-10221234561E}" name="Winner" dataDxfId="108"/>
-    <tableColumn id="21" xr3:uid="{35CC6D37-A0C3-4AD4-BF82-A2397A1D55F9}" name="Streak" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{1594A83E-1EDC-42D0-B92E-B2C9657C4EDF}" name="Column1" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{89AD6EF9-C926-4D60-A992-CE23EFA292D8}" name="Remaining Words" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{316AF02A-8E53-49A3-A280-FA494D60E039}" name="Column2" dataDxfId="104"/>
-    <tableColumn id="9" xr3:uid="{18AB25AD-0458-421E-9756-4244D15467B3}" name="Column3" dataDxfId="103"/>
-    <tableColumn id="10" xr3:uid="{5A025218-A1D5-4B99-94A3-1A1B7E3F0AED}" name="Best Guess" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{74A0B8D8-9694-4E7F-939A-637F604F6E42}" name="Date" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{671795D2-28A1-4C1D-B8E1-C3A3B2EBF9CF}" name="Word Picker" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{A424321B-66F5-4AF0-988D-EB4CAD697C82}" name="Starter Word" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{2495DE10-DAFD-4F51-B791-3FCF6CBBF6D4}" name="Wordle Answer" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{2FA9F35E-319F-444A-B2F4-10221234561E}" name="Winner" dataDxfId="101"/>
+    <tableColumn id="21" xr3:uid="{35CC6D37-A0C3-4AD4-BF82-A2397A1D55F9}" name="Streak" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{1594A83E-1EDC-42D0-B92E-B2C9657C4EDF}" name="Column1" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{89AD6EF9-C926-4D60-A992-CE23EFA292D8}" name="Remaining Words" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{316AF02A-8E53-49A3-A280-FA494D60E039}" name="Column2" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{18AB25AD-0458-421E-9756-4244D15467B3}" name="Column3" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{5A025218-A1D5-4B99-94A3-1A1B7E3F0AED}" name="Best Guess" dataDxfId="95">
       <calculatedColumnFormula>MIN(Season3Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B6382CD-4CB6-4BFF-9985-E06CE0B99D6F}" name="Average Guess" dataDxfId="101">
+    <tableColumn id="11" xr3:uid="{4B6382CD-4CB6-4BFF-9985-E06CE0B99D6F}" name="Average Guess" dataDxfId="94">
       <calculatedColumnFormula>AVERAGE(Season3Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4A601F3B-51B9-4AC3-B7C8-040F92935E44}" name="Tiebreakers" dataDxfId="100">
+    <tableColumn id="14" xr3:uid="{4A601F3B-51B9-4AC3-B7C8-040F92935E44}" name="Tiebreakers" dataDxfId="93">
       <calculatedColumnFormula>IF(COUNTIF(Season3Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F285FBF3-E708-4438-B616-D0CE95B89811}" name="Column4" dataDxfId="99"/>
-    <tableColumn id="13" xr3:uid="{F62B6AEF-BC7F-4463-B763-38D00E6D17B9}" name="Brian" dataDxfId="98"/>
-    <tableColumn id="15" xr3:uid="{6B7B6D04-DEC7-4A83-B13A-1A7F7CDB6953}" name="Elisabeth" dataDxfId="97"/>
-    <tableColumn id="16" xr3:uid="{D68AF314-C41E-4850-B8B6-07999454CEDC}" name="Kendall" dataDxfId="96"/>
-    <tableColumn id="17" xr3:uid="{EF834063-0DEB-402E-95A9-CCAF2215DBF8}" name="Kimball" dataDxfId="95"/>
-    <tableColumn id="18" xr3:uid="{04B93798-1090-4CAB-AA0E-FE39AADD1DDA}" name="Lee Ann" dataDxfId="94"/>
-    <tableColumn id="19" xr3:uid="{C1B135D0-F9AC-4D9C-8976-5FAD9F5A44F6}" name="Sam" dataDxfId="93"/>
-    <tableColumn id="20" xr3:uid="{3F013252-0455-446C-A0A4-F9344B45D559}" name="Spencer" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{F285FBF3-E708-4438-B616-D0CE95B89811}" name="Column4" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{F62B6AEF-BC7F-4463-B763-38D00E6D17B9}" name="Brian" dataDxfId="91"/>
+    <tableColumn id="15" xr3:uid="{6B7B6D04-DEC7-4A83-B13A-1A7F7CDB6953}" name="Elisabeth" dataDxfId="90"/>
+    <tableColumn id="16" xr3:uid="{D68AF314-C41E-4850-B8B6-07999454CEDC}" name="Kendall" dataDxfId="89"/>
+    <tableColumn id="17" xr3:uid="{EF834063-0DEB-402E-95A9-CCAF2215DBF8}" name="Kimball" dataDxfId="88"/>
+    <tableColumn id="18" xr3:uid="{04B93798-1090-4CAB-AA0E-FE39AADD1DDA}" name="Lee Ann" dataDxfId="87"/>
+    <tableColumn id="19" xr3:uid="{C1B135D0-F9AC-4D9C-8976-5FAD9F5A44F6}" name="Sam" dataDxfId="86"/>
+    <tableColumn id="20" xr3:uid="{3F013252-0455-446C-A0A4-F9344B45D559}" name="Spencer" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}" name="Season2Data" displayName="Season2Data" ref="A1:T91" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}" name="Season2Data" displayName="Season2Data" ref="A1:T91" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A1:T91" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A0F81D0A-91C9-4ED1-ABB0-01C375311A6D}" name="Date"/>
@@ -5660,8 +5623,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1299052-A41F-4A11-952E-73182139B0B6}" name="Season1Data" displayName="Season1Data" ref="A1:T93" totalsRowShown="0">
   <autoFilter ref="A1:T93" xr:uid="{F1299052-A41F-4A11-952E-73182139B0B6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{5D805DF6-3D27-4941-91A8-36F1C2E62969}" name="Date" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{F6FEFA32-8D23-4690-85EF-398544EBA0D4}" name="Word Picker" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{5D805DF6-3D27-4941-91A8-36F1C2E62969}" name="Date" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{F6FEFA32-8D23-4690-85EF-398544EBA0D4}" name="Word Picker" dataDxfId="80"/>
     <tableColumn id="3" xr3:uid="{85821FBF-EFB3-4C82-80B6-F4C41F281E31}" name="Starter Word"/>
     <tableColumn id="4" xr3:uid="{3F92475E-1C32-49FB-A4BB-74A9CC55956C}" name="Wordle Answer"/>
     <tableColumn id="20" xr3:uid="{8A4BEC91-28C2-410C-9F74-A085A3E98622}" name="Winner"/>
@@ -5690,33 +5653,33 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}" name="Season1M1" displayName="Season1M1" ref="W3:AP34" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}" name="Season1M1" displayName="Season1M1" ref="W3:AP34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="W3:AP34" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{9B2143F0-0A06-4D30-9924-6822E28E1A9F}" name="Date" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{592A64DB-1A70-4397-91F8-2F09BE3EC70B}" name="Word Picker" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{4B6303A2-5281-4F45-A284-37AC8A756961}" name="Starter Word" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{BFDB3044-C6BB-4D7F-9E61-2B8CC187E7E2}" name="Wordle Answer" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{D3FAE7AA-CB8B-4C50-990F-FB2BFDFECE3E}" name="Winner" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{9ED0C72E-7471-423E-9A7E-99A9BB05224A}" name="Column1" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{E1A77BBE-B352-4AF2-A9FD-179D680A4F28}" name="Remaining Words" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{75A0ECF2-7714-46D5-AAA1-D20680684FA1}" name="Column2" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{75C21A2C-4862-4D05-92D7-8A22EC4A7E1D}" name="Column3" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{0DF6107E-0B3B-4851-A44C-5C49B00E2E1B}" name="Best Guess" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{9B2143F0-0A06-4D30-9924-6822E28E1A9F}" name="Date" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{592A64DB-1A70-4397-91F8-2F09BE3EC70B}" name="Word Picker" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{4B6303A2-5281-4F45-A284-37AC8A756961}" name="Starter Word" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{BFDB3044-C6BB-4D7F-9E61-2B8CC187E7E2}" name="Wordle Answer" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{D3FAE7AA-CB8B-4C50-990F-FB2BFDFECE3E}" name="Winner" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{9ED0C72E-7471-423E-9A7E-99A9BB05224A}" name="Column1" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{E1A77BBE-B352-4AF2-A9FD-179D680A4F28}" name="Remaining Words" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{75A0ECF2-7714-46D5-AAA1-D20680684FA1}" name="Column2" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{75C21A2C-4862-4D05-92D7-8A22EC4A7E1D}" name="Column3" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{0DF6107E-0B3B-4851-A44C-5C49B00E2E1B}" name="Best Guess" dataDxfId="65">
       <calculatedColumnFormula>MIN(AI4:AP4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{76761D9D-4E8C-470E-B5E0-0871054360B8}" name="Average Guess" dataDxfId="71">
+    <tableColumn id="11" xr3:uid="{76761D9D-4E8C-470E-B5E0-0871054360B8}" name="Average Guess" dataDxfId="64">
       <calculatedColumnFormula>AVERAGE(AI4:AP4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{979710C6-671D-49A5-892D-5BE918AB6315}" name="Column4" dataDxfId="70"/>
-    <tableColumn id="13" xr3:uid="{882321AD-1AB6-48A8-ACC9-73096B9751E7}" name="Brian" dataDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{4C9CC18D-EC15-400B-9903-39836D6E93C4}" name="Deepa" dataDxfId="68"/>
-    <tableColumn id="15" xr3:uid="{1FADA994-3A40-4914-BF0A-9F34FA89EB58}" name="Elisabeth" dataDxfId="67"/>
-    <tableColumn id="16" xr3:uid="{3CDF3728-0FE5-4741-896F-F279DD5CA42F}" name="Kendall" dataDxfId="66"/>
-    <tableColumn id="17" xr3:uid="{79FD2CD6-28DC-4A54-A84F-ABF6DAF953E5}" name="Kimball" dataDxfId="65"/>
-    <tableColumn id="18" xr3:uid="{C485325D-1445-4288-8715-7470FCA43D48}" name="Lee Ann" dataDxfId="64"/>
-    <tableColumn id="19" xr3:uid="{D4DA1A52-526B-47C2-B736-46CF1437E334}" name="Sam" dataDxfId="63"/>
-    <tableColumn id="20" xr3:uid="{292EC215-35C3-4381-A9D3-F01594CA35AE}" name="Spencer" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{979710C6-671D-49A5-892D-5BE918AB6315}" name="Column4" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{882321AD-1AB6-48A8-ACC9-73096B9751E7}" name="Brian" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{4C9CC18D-EC15-400B-9903-39836D6E93C4}" name="Deepa" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{1FADA994-3A40-4914-BF0A-9F34FA89EB58}" name="Elisabeth" dataDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{3CDF3728-0FE5-4741-896F-F279DD5CA42F}" name="Kendall" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{79FD2CD6-28DC-4A54-A84F-ABF6DAF953E5}" name="Kimball" dataDxfId="58"/>
+    <tableColumn id="18" xr3:uid="{C485325D-1445-4288-8715-7470FCA43D48}" name="Lee Ann" dataDxfId="57"/>
+    <tableColumn id="19" xr3:uid="{D4DA1A52-526B-47C2-B736-46CF1437E334}" name="Sam" dataDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{292EC215-35C3-4381-A9D3-F01594CA35AE}" name="Spencer" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7208,11 +7171,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
@@ -7220,19 +7183,19 @@
       </c>
       <c r="F41">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Brian],"&lt;&gt;"&amp;"")*100</f>
-        <v>16.949152542372879</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="G41" s="1">
         <f t="array" ref="G41">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="H41">
         <f t="array" ref="H41">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Brian]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41">
         <f>MIN(Season4Data[Brian])</f>
@@ -7551,11 +7514,11 @@
       </c>
       <c r="B48">
         <f>AVERAGE(B41:B47)</f>
-        <v>8.4285714285714288</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D41:D47)</f>
-        <v>4</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="E48">
         <f>AVERAGE(E41:E47)</f>
@@ -7563,11 +7526,11 @@
       </c>
       <c r="F48">
         <f>AVERAGE(Season4Overall[Win Percentage])</f>
-        <v>15.248605309137998</v>
+        <v>15.490736059743325</v>
       </c>
       <c r="J48">
         <f>AVERAGE(J41:J47)</f>
-        <v>11.571428571428571</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="L48">
         <f>AVERAGE(L41:L47)</f>
@@ -7606,8 +7569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697A79C7-C0D8-4420-B173-FCD3997E5B91}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7738,7 +7701,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.833333333333333</v>
       </c>
@@ -7798,7 +7761,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.166666666666667</v>
       </c>
@@ -7858,7 +7821,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.7142857142857144</v>
       </c>
@@ -7920,7 +7883,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.166666666666667</v>
       </c>
@@ -7980,7 +7943,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5</v>
       </c>
@@ -8040,7 +8003,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.1666666666666665</v>
       </c>
@@ -8100,7 +8063,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.1428571428571432</v>
       </c>
@@ -8162,7 +8125,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.5999999999999996</v>
       </c>
@@ -8220,7 +8183,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.333333333333333</v>
       </c>
@@ -8280,7 +8243,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5</v>
       </c>
@@ -8340,7 +8303,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -8402,7 +8365,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.7142857142857144</v>
       </c>
@@ -8464,7 +8427,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8571428571428572</v>
       </c>
@@ -8526,7 +8489,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.5714285714285712</v>
       </c>
@@ -8588,7 +8551,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -8644,7 +8607,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>5.1428571428571432</v>
       </c>
@@ -8700,7 +8663,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.166666666666667</v>
       </c>
@@ -8766,7 +8729,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>5.4285714285714288</v>
       </c>
@@ -8828,7 +8791,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.7142857142857144</v>
       </c>
@@ -8890,7 +8853,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.2857142857142856</v>
       </c>
@@ -8952,7 +8915,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2.6</v>
       </c>
@@ -9010,7 +8973,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -9070,7 +9033,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.333333333333333</v>
       </c>
@@ -9130,7 +9093,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2.3333333333333335</v>
       </c>
@@ -9189,7 +9152,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.1428571428571432</v>
       </c>
@@ -9245,7 +9208,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>5</v>
       </c>
@@ -9301,7 +9264,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8333333333333335</v>
       </c>
@@ -9366,7 +9329,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.333333333333333</v>
       </c>
@@ -9425,7 +9388,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.666666666666667</v>
       </c>
@@ -9484,7 +9447,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>6</v>
       </c>
@@ -9546,7 +9509,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.4285714285714284</v>
       </c>
@@ -9608,7 +9571,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.8571428571428568</v>
       </c>
@@ -9670,7 +9633,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5714285714285716</v>
       </c>
@@ -9732,7 +9695,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.4285714285714284</v>
       </c>
@@ -9794,7 +9757,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8571428571428572</v>
       </c>
@@ -9850,7 +9813,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.1428571428571432</v>
       </c>
@@ -9906,7 +9869,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.833333333333333</v>
       </c>
@@ -9971,7 +9934,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.166666666666667</v>
       </c>
@@ -10030,7 +9993,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.1666666666666665</v>
       </c>
@@ -10089,7 +10052,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.5</v>
       </c>
@@ -10148,7 +10111,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -10210,7 +10173,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -10269,7 +10232,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.3333333333333335</v>
       </c>
@@ -10328,7 +10291,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.6666666666666665</v>
       </c>
@@ -10387,7 +10350,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.4285714285714288</v>
       </c>
@@ -10443,7 +10406,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.833333333333333</v>
       </c>
@@ -10496,7 +10459,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L48" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.6666666666666665</v>
       </c>
@@ -10561,7 +10524,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5</v>
       </c>
@@ -10620,7 +10583,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5714285714285716</v>
       </c>
@@ -10682,7 +10645,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L51" s="32">
+      <c r="L51" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -10741,7 +10704,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2.8571428571428572</v>
       </c>
@@ -10803,7 +10766,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L53" s="32">
+      <c r="L53" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8333333333333335</v>
       </c>
@@ -10862,7 +10825,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.333333333333333</v>
       </c>
@@ -10921,7 +10884,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L55" s="32">
+      <c r="L55" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.333333333333333</v>
       </c>
@@ -10980,7 +10943,7 @@
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="30">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
@@ -11011,55 +10974,49 @@
       <c r="A57" s="1">
         <v>45155</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" t="s">
         <v>732</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" t="s">
         <v>733</v>
       </c>
-      <c r="E57" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="29">
-        <v>1</v>
-      </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29">
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>2711</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30">
+      <c r="K57" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.2</v>
       </c>
-      <c r="M57" s="29" t="b">
+      <c r="M57" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29">
-        <v>3</v>
-      </c>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29">
-        <v>5</v>
-      </c>
-      <c r="R57" s="29">
-        <v>4</v>
-      </c>
-      <c r="S57" s="29">
-        <v>5</v>
-      </c>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29">
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="U57">
         <v>4</v>
       </c>
     </row>
@@ -11067,55 +11024,49 @@
       <c r="A58" s="1">
         <v>45156</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="29" t="s">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
         <v>581</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" t="s">
         <v>734</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="29">
-        <v>1</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>623</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="30">
+      <c r="K58" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="M58" s="29" t="b">
+      <c r="M58" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29">
-        <v>5</v>
-      </c>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29">
-        <v>4</v>
-      </c>
-      <c r="R58" s="29">
-        <v>4</v>
-      </c>
-      <c r="S58" s="29">
-        <v>4</v>
-      </c>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29">
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="U58">
         <v>3</v>
       </c>
       <c r="X58" s="26" t="s">
@@ -11135,57 +11086,52 @@
       <c r="A59" s="1">
         <v>45157</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" t="s">
         <v>731</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" t="s">
         <v>730</v>
       </c>
-      <c r="E59" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="29">
-        <v>1</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29">
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>1485</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30">
+      <c r="K59" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="M59" s="29" t="b">
+      <c r="M59" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29">
-        <v>4</v>
-      </c>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29">
-        <v>6</v>
-      </c>
-      <c r="R59" s="29">
-        <v>6</v>
-      </c>
-      <c r="S59" s="29">
-        <v>5</v>
-      </c>
-      <c r="T59" s="29">
-        <v>5</v>
-      </c>
-      <c r="U59" s="29">
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="U59">
         <v>5</v>
       </c>
       <c r="X59" t="s">
@@ -11199,57 +11145,52 @@
       <c r="A60" s="1">
         <v>45158</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="29" t="s">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
         <v>729</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" t="s">
         <v>728</v>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="29">
-        <v>1</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29">
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="H60">
         <v>245</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="30">
+      <c r="K60" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L60" s="33">
+      <c r="L60" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.5</v>
       </c>
-      <c r="M60" s="29" t="b">
+      <c r="M60" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29">
-        <v>4</v>
-      </c>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29">
-        <v>4</v>
-      </c>
-      <c r="R60" s="29">
-        <v>4</v>
-      </c>
-      <c r="S60" s="29">
-        <v>5</v>
-      </c>
-      <c r="T60" s="29">
-        <v>5</v>
-      </c>
-      <c r="U60" s="29">
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="U60">
         <v>5</v>
       </c>
       <c r="X60" t="s">
@@ -11263,55 +11204,52 @@
       <c r="A61" s="1">
         <v>45159</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="29" t="s">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" t="s">
         <v>522</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29">
-        <v>1</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29">
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>1604</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30">
+      <c r="K61" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="M61" s="29" t="b">
+      <c r="M61" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29">
-        <v>3</v>
-      </c>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29">
-        <v>4</v>
-      </c>
-      <c r="R61" s="29">
-        <v>3</v>
-      </c>
-      <c r="S61" s="29">
-        <v>4</v>
-      </c>
-      <c r="T61" s="29">
-        <v>4</v>
-      </c>
-      <c r="U61" s="29">
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
         <v>5</v>
       </c>
       <c r="X61" t="s">
@@ -11705,16 +11643,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:U61">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Season4Data[Best Guess]"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11730,8 +11668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516866BC-6092-4A8E-AEC5-F7EBBD3B8B58}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17941,7 +17879,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="O2:U93">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23028,8 +22966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995F19E-9A8A-41D9-9AA7-01A16FE65D4B}">
   <dimension ref="A1:AP101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33025,7 +32963,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI38:AP68">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Wordle Group Results.xlsx
+++ b/data/Wordle Group Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bspencer\Documents\GitHub\wordle\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianspencer/Documents/GitHub/wordle/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C8F2C-1E18-4FD0-978A-174EE9CEA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D9B9E1-FD60-A940-8E49-E869764B05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="1" xr2:uid="{9CF507EB-1BFD-487F-B619-C1323D8E19B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" tabRatio="642" activeTab="1" xr2:uid="{9CF507EB-1BFD-487F-B619-C1323D8E19B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Season 2 (12-23 to 3-22)" sheetId="3" r:id="rId4"/>
     <sheet name="Season 1 (9-22 to 12-22)" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="743">
   <si>
     <t>Date</t>
   </si>
@@ -2245,6 +2243,30 @@
   </si>
   <si>
     <t>Exact</t>
+  </si>
+  <si>
+    <t>Gnarl</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>Dusty</t>
+  </si>
+  <si>
+    <t>Verve</t>
+  </si>
+  <si>
+    <t>Wordy</t>
+  </si>
+  <si>
+    <t>Tawny</t>
+  </si>
+  <si>
+    <t>Chirp</t>
+  </si>
+  <si>
+    <t>Choir</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2465,25 +2487,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="157">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="161">
     <dxf>
       <fill>
         <patternFill>
@@ -3045,7 +3057,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3076,7 +3088,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3449,7 +3461,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3486,7 +3498,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3523,7 +3535,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3560,7 +3572,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3597,7 +3609,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3634,7 +3646,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3671,7 +3683,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3708,7 +3720,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3745,7 +3757,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3782,7 +3794,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3813,7 +3825,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4570,7 +4582,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -4607,7 +4619,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -4706,10 +4718,17 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4986,6 +5005,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -5166,7 +5192,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5215,6 +5241,40 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -5224,7 +5284,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5278,7 +5338,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5310,28 +5370,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}" name="Season3Overall" displayName="Season3Overall" ref="A28:P35" totalsRowShown="0" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}" name="Season3Overall" displayName="Season3Overall" ref="A28:P35" totalsRowShown="0" tableBorderDxfId="160">
   <autoFilter ref="A28:P35" xr:uid="{9700D70E-F07A-4F0E-9791-15632853D9BB}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{787A8264-823A-47E4-B9D7-075FCFFF6828}" name="Person:"/>
-    <tableColumn id="2" xr3:uid="{33F48620-3BB9-4D66-B57B-E36193561677}" name="Solo" dataDxfId="155">
+    <tableColumn id="2" xr3:uid="{33F48620-3BB9-4D66-B57B-E36193561677}" name="Solo" dataDxfId="159">
       <calculatedColumnFormula>COUNTIF(Season3Data[Winner],Season3Overall[[#This Row],[Person:]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1474E27B-A731-46F7-ACA8-C091FF0E6F7B}" name="Shared"/>
-    <tableColumn id="4" xr3:uid="{7787921F-E98A-412C-932D-0F895DC9C575}" name="Uncontested Wins" dataDxfId="154">
+    <tableColumn id="4" xr3:uid="{7787921F-E98A-412C-932D-0F895DC9C575}" name="Uncontested Wins" dataDxfId="158">
       <calculatedColumnFormula>SUMPRODUCT(--(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]]),--(Season3Data[Tiebreakers]=FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3CA18517-D7AC-4996-AD73-13E98CF734C2}" name="Contested Wins" dataDxfId="153">
+    <tableColumn id="5" xr3:uid="{3CA18517-D7AC-4996-AD73-13E98CF734C2}" name="Contested Wins" dataDxfId="157">
       <calculatedColumnFormula>SUMPRODUCT(--(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]]),--(Season3Data[Tiebreakers]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6CB8E667-2CDE-45CF-BE70-21D3ADCCEB57}" name="Column1"/>
-    <tableColumn id="16" xr3:uid="{703C5257-6799-4FDC-A787-116545EC9433}" name="Last Win" dataDxfId="152">
+    <tableColumn id="16" xr3:uid="{703C5257-6799-4FDC-A787-116545EC9433}" name="Last Win" dataDxfId="156">
       <calculatedColumnFormula array="1">MAX(IF(Season3Data[Winner]=Season3Overall[[#This Row],[Person:]],Season3Data[Date]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2A036726-E087-4A16-B913-C0BE952A4447}" name="Days since Last Win" dataDxfId="151">
+    <tableColumn id="15" xr3:uid="{2A036726-E087-4A16-B913-C0BE952A4447}" name="Days since Last Win" dataDxfId="155">
       <calculatedColumnFormula>DATEDIF(Season3Overall[[#This Row],[Last Win]],TODAY(),"d")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A7A2A361-C0A1-483F-B62D-56BE796BADE9}" name="Win Percentage" dataDxfId="150">
+    <tableColumn id="14" xr3:uid="{A7A2A361-C0A1-483F-B62D-56BE796BADE9}" name="Win Percentage" dataDxfId="154">
       <calculatedColumnFormula>Season3Overall[[#This Row],[Solo]]/COUNTIF(Season3Data[Elisabeth],"&lt;&gt;"&amp;"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3E4172AF-23FD-44AB-B380-3F4AF8F3AB58}" name="Unwon Tiebreakers"/>
@@ -5339,10 +5399,10 @@
     <tableColumn id="9" xr3:uid="{304B608E-4097-4ED0-9D67-6AA2BC0BB420}" name="Best Guess"/>
     <tableColumn id="10" xr3:uid="{DFDA1E34-3CA9-4071-95FE-C7F9AFA845DA}" name="Average Guess"/>
     <tableColumn id="11" xr3:uid="{16261267-85CB-4B3E-9310-8E8D52B5A503}" name="Column3"/>
-    <tableColumn id="12" xr3:uid="{45431BBD-96B1-45A5-B4E4-77128BA2D21C}" name="Average Remaining Answers" dataDxfId="149">
+    <tableColumn id="12" xr3:uid="{45431BBD-96B1-45A5-B4E4-77128BA2D21C}" name="Average Remaining Answers" dataDxfId="153">
       <calculatedColumnFormula>AVERAGEIF(Season3Data[Word Picker],Season3Overall[[#This Row],[Person:]],Season3Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FC776735-0D77-4F7E-B4AC-350EEE05633F}" name="Average Response" dataDxfId="148">
+    <tableColumn id="13" xr3:uid="{FC776735-0D77-4F7E-B4AC-350EEE05633F}" name="Average Response" dataDxfId="152">
       <calculatedColumnFormula>AVERAGEIF(Season3Data[Word Picker],Season3Overall[[#This Row],[Person:]],Season3Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5351,73 +5411,73 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}" name="Season1M2" displayName="Season1M2" ref="W37:AP68" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}" name="Season1M2" displayName="Season1M2" ref="W37:AP68" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="W37:AP68" xr:uid="{DA553084-3448-401D-A656-76E86548CEE6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{91A4EFA4-2063-40D9-84C2-F7584440FE43}" name="Date" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{DA8870E9-E25A-4554-BC15-B14DD1A16926}" name="Word Picker" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{4C5E38BB-39A2-42E9-9F63-59FC862EC4DB}" name="Starter Word" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{1F0D34FF-D64F-472B-927F-9938A660972D}" name="Wordle Answer" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{58338D9D-91A6-4DE5-A94B-6E56F6E5E1A4}" name="Winner" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{B9063691-50B3-4DD8-8E81-1E493DDD2A86}" name="Column1" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{F77F3877-5990-4D3A-8E89-727FCF8F8C0A}" name="Remaining Words" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{C16B93F2-DBAD-4916-BCE5-B0F643272569}" name="Column2" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{49CEC729-D941-445E-931A-EE100FBB09BC}" name="Column3" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{F7140531-CEA9-4C6B-BDBA-FBDA8656A812}" name="Best Guess" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{91A4EFA4-2063-40D9-84C2-F7584440FE43}" name="Date" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{DA8870E9-E25A-4554-BC15-B14DD1A16926}" name="Word Picker" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{4C5E38BB-39A2-42E9-9F63-59FC862EC4DB}" name="Starter Word" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{1F0D34FF-D64F-472B-927F-9938A660972D}" name="Wordle Answer" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{58338D9D-91A6-4DE5-A94B-6E56F6E5E1A4}" name="Winner" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{B9063691-50B3-4DD8-8E81-1E493DDD2A86}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{F77F3877-5990-4D3A-8E89-727FCF8F8C0A}" name="Remaining Words" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{C16B93F2-DBAD-4916-BCE5-B0F643272569}" name="Column2" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{49CEC729-D941-445E-931A-EE100FBB09BC}" name="Column3" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{F7140531-CEA9-4C6B-BDBA-FBDA8656A812}" name="Best Guess" dataDxfId="38">
       <calculatedColumnFormula>MIN(AI38:AP38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DCC49461-9C93-4854-9ABA-145F4BEEB237}" name="Average Guess" dataDxfId="39">
+    <tableColumn id="11" xr3:uid="{DCC49461-9C93-4854-9ABA-145F4BEEB237}" name="Average Guess" dataDxfId="37">
       <calculatedColumnFormula>AVERAGE(AI38:AP38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BAB35D52-AD94-4972-BFF1-7A383847A0B6}" name="Column4" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{44F55E61-51B6-4555-8207-39118330CE2C}" name="Brian" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{28816C72-F2B9-48A6-9732-B988ABF1E496}" name="Deepa" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{625D6671-0760-444B-9457-8937E90DC6A7}" name="Elisabeth" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{83C475EF-8F23-4715-B1CA-567FA03D2BB6}" name="Kendall" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{F0D9A1A2-CA63-4E3B-88B8-143F0EDDE85A}" name="Kimball" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{A11A0717-243F-49A8-AF39-8BFACEDC08C0}" name="Lee Ann" dataDxfId="32"/>
-    <tableColumn id="19" xr3:uid="{5E225017-4CEA-41EF-AE01-D12550B98D90}" name="Sam" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{CCE31395-6DCF-47FB-893F-B638075C8170}" name="Spencer" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{BAB35D52-AD94-4972-BFF1-7A383847A0B6}" name="Column4" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{44F55E61-51B6-4555-8207-39118330CE2C}" name="Brian" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{28816C72-F2B9-48A6-9732-B988ABF1E496}" name="Deepa" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{625D6671-0760-444B-9457-8937E90DC6A7}" name="Elisabeth" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{83C475EF-8F23-4715-B1CA-567FA03D2BB6}" name="Kendall" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{F0D9A1A2-CA63-4E3B-88B8-143F0EDDE85A}" name="Kimball" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{A11A0717-243F-49A8-AF39-8BFACEDC08C0}" name="Lee Ann" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{5E225017-4CEA-41EF-AE01-D12550B98D90}" name="Sam" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{CCE31395-6DCF-47FB-893F-B638075C8170}" name="Spencer" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}" name="Season1M3" displayName="Season1M3" ref="W71:AP101" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}" name="Season1M3" displayName="Season1M3" ref="W71:AP101" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="W71:AP101" xr:uid="{515E0FFB-1F44-4AAB-A6F2-C3D59471498E}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{AF41E59D-65B0-49ED-A034-EB1A1C5B8244}" name="Date" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A844F5E8-C67B-4583-9671-9E47E4748AA5}" name="Word Picker" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{C65CEE79-37FB-4219-8584-46049887564D}" name="Starter Word" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F0E28F9F-846F-45AF-AF3A-6D9B87BE2299}" name="Wordle Answer" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{1E808D36-D5A7-457F-9D82-08FC07D9D585}" name="Winner" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{70B7CC56-8815-4442-ADFF-55E96C744A9D}" name="Column1" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{A291F2F5-A3BA-4D69-A6B5-235A3AD349CC}" name="Remaining Words" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E31E6BC1-5577-4CBA-A907-0277541E7D85}" name="Column2" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{87C35D30-C4A9-4EEF-95C6-AC0480AE7E58}" name="Column3" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{762C5227-B5CA-440E-9FAE-502D7A24CD1C}" name="Best Guess" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{AF41E59D-65B0-49ED-A034-EB1A1C5B8244}" name="Date" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A844F5E8-C67B-4583-9671-9E47E4748AA5}" name="Word Picker" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{C65CEE79-37FB-4219-8584-46049887564D}" name="Starter Word" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F0E28F9F-846F-45AF-AF3A-6D9B87BE2299}" name="Wordle Answer" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{1E808D36-D5A7-457F-9D82-08FC07D9D585}" name="Winner" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{70B7CC56-8815-4442-ADFF-55E96C744A9D}" name="Column1" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{A291F2F5-A3BA-4D69-A6B5-235A3AD349CC}" name="Remaining Words" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{E31E6BC1-5577-4CBA-A907-0277541E7D85}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{87C35D30-C4A9-4EEF-95C6-AC0480AE7E58}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{762C5227-B5CA-440E-9FAE-502D7A24CD1C}" name="Best Guess" dataDxfId="13">
       <calculatedColumnFormula>MIN(AI72:AP72)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{529278C7-2E0E-43B2-AE37-6217D749D690}" name="Average Guess" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{529278C7-2E0E-43B2-AE37-6217D749D690}" name="Average Guess" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(AI72:AP72)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{591804F3-BAD4-40E2-B836-6EE314E01AC9}" name="Column4" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{CB2E4FE8-52EC-4620-8A2B-D3A2592F4B44}" name="Brian" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{F08F81FD-CF65-4655-875F-265E1DA1CC62}" name="Deepa" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{ADEF8BC0-92ED-4C7B-BE0D-54C81E1E0063}" name="Elisabeth" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{591804F3-BAD4-40E2-B836-6EE314E01AC9}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{CB2E4FE8-52EC-4620-8A2B-D3A2592F4B44}" name="Brian" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{F08F81FD-CF65-4655-875F-265E1DA1CC62}" name="Deepa" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{ADEF8BC0-92ED-4C7B-BE0D-54C81E1E0063}" name="Elisabeth" dataDxfId="8"/>
     <tableColumn id="16" xr3:uid="{852921F6-B2DC-426F-AC2C-18447962654C}" name="Kendall"/>
-    <tableColumn id="17" xr3:uid="{9076332D-EF05-43AF-A8C1-840BA4EEDECF}" name="Kimball" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{725AE676-45B9-4128-B0C4-83903A688107}" name="Lee Ann" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{5E5E4383-5B18-416E-843A-75D5CAB2EADF}" name="Sam" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{F8840677-8A9E-47A1-97B5-F2776DB508F8}" name="Spencer" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{9076332D-EF05-43AF-A8C1-840BA4EEDECF}" name="Kimball" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{725AE676-45B9-4128-B0C4-83903A688107}" name="Lee Ann" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{5E5E4383-5B18-416E-843A-75D5CAB2EADF}" name="Sam" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{F8840677-8A9E-47A1-97B5-F2776DB508F8}" name="Spencer" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}" name="Season2Overall" displayName="Season2Overall" ref="A15:J23" totalsRowShown="0" tableBorderDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}" name="Season2Overall" displayName="Season2Overall" ref="A15:J23" totalsRowShown="0" tableBorderDxfId="151">
   <autoFilter ref="A15:J23" xr:uid="{01069587-5DAE-4845-B87B-EC59720CB8DC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{89155E2F-2BA5-41A7-AEE0-36D4C3B6CFD5}" name="Person"/>
@@ -5428,12 +5488,12 @@
     <tableColumn id="4" xr3:uid="{92A0425F-C42A-412A-A949-10D670DF8873}" name="Unwon Tiebreakers"/>
     <tableColumn id="5" xr3:uid="{CEB04F20-D298-4187-B56B-A62A50CD662E}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{3E987C1C-010B-43D6-A370-25C26BC2EB70}" name="Best Guess"/>
-    <tableColumn id="7" xr3:uid="{ABE81DB2-3329-4A7F-8F5B-38F4A164990F}" name="Average Guess" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{ABE81DB2-3329-4A7F-8F5B-38F4A164990F}" name="Average Guess" dataDxfId="150"/>
     <tableColumn id="8" xr3:uid="{84110983-151B-4216-9A59-3FC415F5830C}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{D4C53413-E1F3-4981-A4CD-EA9E94D6BD20}" name="Average Remaining Answers" dataDxfId="145">
+    <tableColumn id="9" xr3:uid="{D4C53413-E1F3-4981-A4CD-EA9E94D6BD20}" name="Average Remaining Answers" dataDxfId="149">
       <calculatedColumnFormula>AVERAGEIF(Season2Data[Word Picker],Overall!A16,Season2Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5175A0C7-4196-48F1-B0C7-F69134B3D4CA}" name="Average Response" dataDxfId="144">
+    <tableColumn id="10" xr3:uid="{5175A0C7-4196-48F1-B0C7-F69134B3D4CA}" name="Average Response" dataDxfId="148">
       <calculatedColumnFormula>AVERAGEIF(Season2Data[Word Picker],A16,Season2Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5442,7 +5502,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}" name="Season1Overall" displayName="Season1Overall" ref="A2:J10" totalsRowShown="0" tableBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}" name="Season1Overall" displayName="Season1Overall" ref="A2:J10" totalsRowShown="0" tableBorderDxfId="147">
   <autoFilter ref="A2:J10" xr:uid="{39C47306-2403-4491-AD63-D3CCCBD9E83A}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DC2905F2-16D8-41B5-AB85-265A869CF272}" name="Person"/>
@@ -5467,28 +5527,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}" name="Season4Overall" displayName="Season4Overall" ref="A40:P47" totalsRowShown="0" tableBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}" name="Season4Overall" displayName="Season4Overall" ref="A40:P47" totalsRowShown="0" tableBorderDxfId="146">
   <autoFilter ref="A40:P47" xr:uid="{2EBEA463-CE79-41B7-911F-BDE9BC00458A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:P47">
     <sortCondition ref="A40:A47"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{DD76C171-74DA-4C87-B0A1-132854C23CCD}" name="Person:"/>
-    <tableColumn id="2" xr3:uid="{4FCA034B-800C-48EC-8EC4-1E75E88A1166}" name="Solo" dataDxfId="141">
+    <tableColumn id="2" xr3:uid="{4FCA034B-800C-48EC-8EC4-1E75E88A1166}" name="Solo" dataDxfId="145">
       <calculatedColumnFormula>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A293AEBF-B27A-43DB-9D71-12C8AADEF0F5}" name="Shared"/>
-    <tableColumn id="4" xr3:uid="{04D350E6-CF5B-4E6D-A1D9-0F5E93033224}" name="Contested Wins" dataDxfId="140">
+    <tableColumn id="4" xr3:uid="{04D350E6-CF5B-4E6D-A1D9-0F5E93033224}" name="Contested Wins" dataDxfId="144">
       <calculatedColumnFormula>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7A4784D1-63FC-4DEA-AC5E-23BFA36A5FAE}" name="Uncontested Wins" dataDxfId="139">
+    <tableColumn id="5" xr3:uid="{7A4784D1-63FC-4DEA-AC5E-23BFA36A5FAE}" name="Uncontested Wins" dataDxfId="143">
       <calculatedColumnFormula>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F88F562A-23F3-4394-945F-5520C3391AEF}" name="Win Percentage"/>
-    <tableColumn id="16" xr3:uid="{C40F777D-118B-45E1-81AB-01927AF1D6C7}" name="Last Win" dataDxfId="138">
+    <tableColumn id="16" xr3:uid="{C40F777D-118B-45E1-81AB-01927AF1D6C7}" name="Last Win" dataDxfId="142">
       <calculatedColumnFormula array="1">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{CCCDD2DB-85C9-44CA-81F0-5059EDD52543}" name="Days since Last Win" dataDxfId="137">
+    <tableColumn id="15" xr3:uid="{CCCDD2DB-85C9-44CA-81F0-5059EDD52543}" name="Days since Last Win" dataDxfId="141">
       <calculatedColumnFormula array="1">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E0B1E0C4-A9E2-47F2-BE1A-A82A91CE7BDB}" name="Column1"/>
@@ -5497,10 +5557,10 @@
     <tableColumn id="9" xr3:uid="{9E77CF18-7EEA-4387-AA28-C106F679DBEE}" name="Best Guess"/>
     <tableColumn id="10" xr3:uid="{D82E872F-506A-41C5-B177-4A503E60A78E}" name="Average Guess"/>
     <tableColumn id="11" xr3:uid="{0C12E219-CD50-4039-9418-870FD409BED2}" name="Column3"/>
-    <tableColumn id="12" xr3:uid="{16D669DB-C0F3-41CB-8BAD-47C5E5D82992}" name="Average Remaining Answers" dataDxfId="136">
+    <tableColumn id="12" xr3:uid="{16D669DB-C0F3-41CB-8BAD-47C5E5D82992}" name="Average Remaining Answers" dataDxfId="140">
       <calculatedColumnFormula>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DDC76309-5EDB-4C98-BAE3-D5BC22249D9A}" name="Average Response" dataDxfId="135">
+    <tableColumn id="13" xr3:uid="{DDC76309-5EDB-4C98-BAE3-D5BC22249D9A}" name="Average Response" dataDxfId="139">
       <calculatedColumnFormula>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5509,8 +5569,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U61" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
-  <autoFilter ref="A1:U61" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U66" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
+  <autoFilter ref="A1:U66" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U61">
     <sortCondition ref="A1:A61"/>
   </sortState>
@@ -5548,46 +5608,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}" name="Season3Data" displayName="Season3Data" ref="A1:U93" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}" name="Season3Data" displayName="Season3Data" ref="A1:U93" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
   <autoFilter ref="A1:U93" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U93">
     <sortCondition ref="A1:A93"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{74A0B8D8-9694-4E7F-939A-637F604F6E42}" name="Date" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{671795D2-28A1-4C1D-B8E1-C3A3B2EBF9CF}" name="Word Picker" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{A424321B-66F5-4AF0-988D-EB4CAD697C82}" name="Starter Word" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{2495DE10-DAFD-4F51-B791-3FCF6CBBF6D4}" name="Wordle Answer" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{2FA9F35E-319F-444A-B2F4-10221234561E}" name="Winner" dataDxfId="101"/>
-    <tableColumn id="21" xr3:uid="{35CC6D37-A0C3-4AD4-BF82-A2397A1D55F9}" name="Streak" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{1594A83E-1EDC-42D0-B92E-B2C9657C4EDF}" name="Column1" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{89AD6EF9-C926-4D60-A992-CE23EFA292D8}" name="Remaining Words" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{316AF02A-8E53-49A3-A280-FA494D60E039}" name="Column2" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{18AB25AD-0458-421E-9756-4244D15467B3}" name="Column3" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{5A025218-A1D5-4B99-94A3-1A1B7E3F0AED}" name="Best Guess" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{74A0B8D8-9694-4E7F-939A-637F604F6E42}" name="Date" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{671795D2-28A1-4C1D-B8E1-C3A3B2EBF9CF}" name="Word Picker" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{A424321B-66F5-4AF0-988D-EB4CAD697C82}" name="Starter Word" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{2495DE10-DAFD-4F51-B791-3FCF6CBBF6D4}" name="Wordle Answer" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{2FA9F35E-319F-444A-B2F4-10221234561E}" name="Winner" dataDxfId="100"/>
+    <tableColumn id="21" xr3:uid="{35CC6D37-A0C3-4AD4-BF82-A2397A1D55F9}" name="Streak" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{1594A83E-1EDC-42D0-B92E-B2C9657C4EDF}" name="Column1" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{89AD6EF9-C926-4D60-A992-CE23EFA292D8}" name="Remaining Words" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{316AF02A-8E53-49A3-A280-FA494D60E039}" name="Column2" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{18AB25AD-0458-421E-9756-4244D15467B3}" name="Column3" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{5A025218-A1D5-4B99-94A3-1A1B7E3F0AED}" name="Best Guess" dataDxfId="94">
       <calculatedColumnFormula>MIN(Season3Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B6382CD-4CB6-4BFF-9985-E06CE0B99D6F}" name="Average Guess" dataDxfId="94">
+    <tableColumn id="11" xr3:uid="{4B6382CD-4CB6-4BFF-9985-E06CE0B99D6F}" name="Average Guess" dataDxfId="93">
       <calculatedColumnFormula>AVERAGE(Season3Data[[#This Row],[Brian]:[Spencer]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4A601F3B-51B9-4AC3-B7C8-040F92935E44}" name="Tiebreakers" dataDxfId="93">
+    <tableColumn id="14" xr3:uid="{4A601F3B-51B9-4AC3-B7C8-040F92935E44}" name="Tiebreakers" dataDxfId="92">
       <calculatedColumnFormula>IF(COUNTIF(Season3Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F285FBF3-E708-4438-B616-D0CE95B89811}" name="Column4" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{F62B6AEF-BC7F-4463-B763-38D00E6D17B9}" name="Brian" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{6B7B6D04-DEC7-4A83-B13A-1A7F7CDB6953}" name="Elisabeth" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{D68AF314-C41E-4850-B8B6-07999454CEDC}" name="Kendall" dataDxfId="89"/>
-    <tableColumn id="17" xr3:uid="{EF834063-0DEB-402E-95A9-CCAF2215DBF8}" name="Kimball" dataDxfId="88"/>
-    <tableColumn id="18" xr3:uid="{04B93798-1090-4CAB-AA0E-FE39AADD1DDA}" name="Lee Ann" dataDxfId="87"/>
-    <tableColumn id="19" xr3:uid="{C1B135D0-F9AC-4D9C-8976-5FAD9F5A44F6}" name="Sam" dataDxfId="86"/>
-    <tableColumn id="20" xr3:uid="{3F013252-0455-446C-A0A4-F9344B45D559}" name="Spencer" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{F285FBF3-E708-4438-B616-D0CE95B89811}" name="Column4" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{F62B6AEF-BC7F-4463-B763-38D00E6D17B9}" name="Brian" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{6B7B6D04-DEC7-4A83-B13A-1A7F7CDB6953}" name="Elisabeth" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{D68AF314-C41E-4850-B8B6-07999454CEDC}" name="Kendall" dataDxfId="88"/>
+    <tableColumn id="17" xr3:uid="{EF834063-0DEB-402E-95A9-CCAF2215DBF8}" name="Kimball" dataDxfId="87"/>
+    <tableColumn id="18" xr3:uid="{04B93798-1090-4CAB-AA0E-FE39AADD1DDA}" name="Lee Ann" dataDxfId="86"/>
+    <tableColumn id="19" xr3:uid="{C1B135D0-F9AC-4D9C-8976-5FAD9F5A44F6}" name="Sam" dataDxfId="85"/>
+    <tableColumn id="20" xr3:uid="{3F013252-0455-446C-A0A4-F9344B45D559}" name="Spencer" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}" name="Season2Data" displayName="Season2Data" ref="A1:T91" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}" name="Season2Data" displayName="Season2Data" ref="A1:T91" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="A1:T91" xr:uid="{EEF3848B-652F-49EA-876C-2A048D506813}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A0F81D0A-91C9-4ED1-ABB0-01C375311A6D}" name="Date"/>
@@ -5623,8 +5683,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1299052-A41F-4A11-952E-73182139B0B6}" name="Season1Data" displayName="Season1Data" ref="A1:T93" totalsRowShown="0">
   <autoFilter ref="A1:T93" xr:uid="{F1299052-A41F-4A11-952E-73182139B0B6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{5D805DF6-3D27-4941-91A8-36F1C2E62969}" name="Date" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{F6FEFA32-8D23-4690-85EF-398544EBA0D4}" name="Word Picker" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{5D805DF6-3D27-4941-91A8-36F1C2E62969}" name="Date" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{F6FEFA32-8D23-4690-85EF-398544EBA0D4}" name="Word Picker" dataDxfId="78"/>
     <tableColumn id="3" xr3:uid="{85821FBF-EFB3-4C82-80B6-F4C41F281E31}" name="Starter Word"/>
     <tableColumn id="4" xr3:uid="{3F92475E-1C32-49FB-A4BB-74A9CC55956C}" name="Wordle Answer"/>
     <tableColumn id="20" xr3:uid="{8A4BEC91-28C2-410C-9F74-A085A3E98622}" name="Winner"/>
@@ -5653,33 +5713,33 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}" name="Season1M1" displayName="Season1M1" ref="W3:AP34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}" name="Season1M1" displayName="Season1M1" ref="W3:AP34" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="W3:AP34" xr:uid="{40BE9D3E-F042-44C2-8664-72B0DE3C91A1}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{9B2143F0-0A06-4D30-9924-6822E28E1A9F}" name="Date" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{592A64DB-1A70-4397-91F8-2F09BE3EC70B}" name="Word Picker" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{4B6303A2-5281-4F45-A284-37AC8A756961}" name="Starter Word" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{BFDB3044-C6BB-4D7F-9E61-2B8CC187E7E2}" name="Wordle Answer" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{D3FAE7AA-CB8B-4C50-990F-FB2BFDFECE3E}" name="Winner" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{9ED0C72E-7471-423E-9A7E-99A9BB05224A}" name="Column1" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{E1A77BBE-B352-4AF2-A9FD-179D680A4F28}" name="Remaining Words" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{75A0ECF2-7714-46D5-AAA1-D20680684FA1}" name="Column2" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{75C21A2C-4862-4D05-92D7-8A22EC4A7E1D}" name="Column3" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{0DF6107E-0B3B-4851-A44C-5C49B00E2E1B}" name="Best Guess" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{9B2143F0-0A06-4D30-9924-6822E28E1A9F}" name="Date" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{592A64DB-1A70-4397-91F8-2F09BE3EC70B}" name="Word Picker" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{4B6303A2-5281-4F45-A284-37AC8A756961}" name="Starter Word" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{BFDB3044-C6BB-4D7F-9E61-2B8CC187E7E2}" name="Wordle Answer" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{D3FAE7AA-CB8B-4C50-990F-FB2BFDFECE3E}" name="Winner" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{9ED0C72E-7471-423E-9A7E-99A9BB05224A}" name="Column1" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{E1A77BBE-B352-4AF2-A9FD-179D680A4F28}" name="Remaining Words" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{75A0ECF2-7714-46D5-AAA1-D20680684FA1}" name="Column2" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{75C21A2C-4862-4D05-92D7-8A22EC4A7E1D}" name="Column3" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{0DF6107E-0B3B-4851-A44C-5C49B00E2E1B}" name="Best Guess" dataDxfId="63">
       <calculatedColumnFormula>MIN(AI4:AP4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{76761D9D-4E8C-470E-B5E0-0871054360B8}" name="Average Guess" dataDxfId="64">
+    <tableColumn id="11" xr3:uid="{76761D9D-4E8C-470E-B5E0-0871054360B8}" name="Average Guess" dataDxfId="62">
       <calculatedColumnFormula>AVERAGE(AI4:AP4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{979710C6-671D-49A5-892D-5BE918AB6315}" name="Column4" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{882321AD-1AB6-48A8-ACC9-73096B9751E7}" name="Brian" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{4C9CC18D-EC15-400B-9903-39836D6E93C4}" name="Deepa" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{1FADA994-3A40-4914-BF0A-9F34FA89EB58}" name="Elisabeth" dataDxfId="60"/>
-    <tableColumn id="16" xr3:uid="{3CDF3728-0FE5-4741-896F-F279DD5CA42F}" name="Kendall" dataDxfId="59"/>
-    <tableColumn id="17" xr3:uid="{79FD2CD6-28DC-4A54-A84F-ABF6DAF953E5}" name="Kimball" dataDxfId="58"/>
-    <tableColumn id="18" xr3:uid="{C485325D-1445-4288-8715-7470FCA43D48}" name="Lee Ann" dataDxfId="57"/>
-    <tableColumn id="19" xr3:uid="{D4DA1A52-526B-47C2-B736-46CF1437E334}" name="Sam" dataDxfId="56"/>
-    <tableColumn id="20" xr3:uid="{292EC215-35C3-4381-A9D3-F01594CA35AE}" name="Spencer" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{979710C6-671D-49A5-892D-5BE918AB6315}" name="Column4" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{882321AD-1AB6-48A8-ACC9-73096B9751E7}" name="Brian" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{4C9CC18D-EC15-400B-9903-39836D6E93C4}" name="Deepa" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{1FADA994-3A40-4914-BF0A-9F34FA89EB58}" name="Elisabeth" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{3CDF3728-0FE5-4741-896F-F279DD5CA42F}" name="Kendall" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{79FD2CD6-28DC-4A54-A84F-ABF6DAF953E5}" name="Kimball" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{C485325D-1445-4288-8715-7470FCA43D48}" name="Lee Ann" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{D4DA1A52-526B-47C2-B736-46CF1437E334}" name="Sam" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{292EC215-35C3-4381-A9D3-F01594CA35AE}" name="Spencer" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5989,27 +6049,27 @@
       <selection pane="topRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -6041,7 +6101,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6070,7 +6130,7 @@
         <v>4.2361111111111107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6099,7 +6159,7 @@
         <v>4.1749999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6131,7 +6191,7 @@
         <v>4.1111111111111107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6220,7 @@
         <v>4.208333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6189,7 +6249,7 @@
         <v>4.0568181818181817</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6218,7 +6278,7 @@
         <v>3.8035714285714284</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6250,7 +6310,7 @@
         <v>4.484375</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6279,7 +6339,7 @@
         <v>4.0535714285714288</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -6312,7 +6372,7 @@
         <v>4.1453804347826084</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6325,12 +6385,12 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>380</v>
       </c>
@@ -6362,7 +6422,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6451,7 @@
         <v>4.0223214285714288</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6480,7 @@
         <v>4.53125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -6452,7 +6512,7 @@
         <v>4.0461309523809526</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -6484,7 +6544,7 @@
         <v>3.9933035714285712</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6513,7 +6573,7 @@
         <v>3.703125</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6545,7 +6605,7 @@
         <v>4.3230519480519485</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6577,7 +6637,7 @@
         <v>3.4620535714285712</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -6606,7 +6666,7 @@
         <v>4.0404761904761903</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -6635,7 +6695,7 @@
         <v>4.0045634920634923</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -6653,12 +6713,12 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>381</v>
       </c>
@@ -6708,7 +6768,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6817,7 @@
         <v>4.0312169312169317</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -6806,7 +6866,7 @@
         <v>3.7976190476190474</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -6855,7 +6915,7 @@
         <v>3.9085034013605449</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6904,7 +6964,7 @@
         <v>4.0347985347985347</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6953,7 +7013,7 @@
         <v>4.1739926739926743</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7002,7 +7062,7 @@
         <v>3.8320346320346315</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -7051,7 +7111,7 @@
         <v>4.0757142857142847</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7092,7 +7152,7 @@
         <v>3.9886128364389246</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -7110,12 +7170,12 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -7165,17 +7225,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
@@ -7183,11 +7243,11 @@
       </c>
       <c r="F41">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Brian],"&lt;&gt;"&amp;"")*100</f>
-        <v>18.64406779661017</v>
+        <v>20.3125</v>
       </c>
       <c r="G41" s="1">
         <f t="array" ref="G41">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45159</v>
+        <v>45164</v>
       </c>
       <c r="H41">
         <f t="array" ref="H41">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
@@ -7203,18 +7263,18 @@
       </c>
       <c r="M41">
         <f>AVERAGE(Season4Data[Brian])</f>
-        <v>4.0338983050847457</v>
+        <v>4</v>
       </c>
       <c r="O41">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>706.3</v>
+        <v>812.58333333333337</v>
       </c>
       <c r="P41">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>3.8357142857142863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.700396825396826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -7232,7 +7292,7 @@
       </c>
       <c r="F42">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Elisabeth],"&lt;&gt;"&amp;"")*100</f>
-        <v>11.538461538461538</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="G42" s="1">
         <f t="array" ref="G42">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7240,7 +7300,7 @@
       </c>
       <c r="H42">
         <f t="array" ref="H42">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J42">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Elisabeth]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
@@ -7252,7 +7312,7 @@
       </c>
       <c r="M42">
         <f>AVERAGE(Season4Data[Elisabeth])</f>
-        <v>4.1538461538461542</v>
+        <v>4.1785714285714288</v>
       </c>
       <c r="O42">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7263,7 +7323,7 @@
         <v>3.8809523809523809</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -7281,7 +7341,7 @@
       </c>
       <c r="F43">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Kendall],"&lt;&gt;"&amp;"")*100</f>
-        <v>13.333333333333334</v>
+        <v>12.307692307692308</v>
       </c>
       <c r="G43" s="1">
         <f t="array" ref="G43">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7289,11 +7349,11 @@
       </c>
       <c r="H43">
         <f t="array" ref="H43">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J43">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Kendall]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L43">
         <f>MIN(Season4Data[Kendall])</f>
@@ -7301,7 +7361,7 @@
       </c>
       <c r="M43">
         <f>AVERAGE(Season4Data[Kendall])</f>
-        <v>4.0999999999999996</v>
+        <v>4.0615384615384613</v>
       </c>
       <c r="O43">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7312,17 +7372,17 @@
         <v>4.020833333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
@@ -7330,19 +7390,19 @@
       </c>
       <c r="F44">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Kimball],"&lt;&gt;"&amp;"")*100</f>
-        <v>8.3333333333333321</v>
+        <v>9.2307692307692317</v>
       </c>
       <c r="G44" s="1">
         <f t="array" ref="G44">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45117</v>
+        <v>45160</v>
       </c>
       <c r="H44">
         <f t="array" ref="H44">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Kimball]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L44">
         <f>MIN(Season4Data[Kimball])</f>
@@ -7350,24 +7410,24 @@
       </c>
       <c r="M44">
         <f>AVERAGE(Season4Data[Kimball])</f>
-        <v>4.1166666666666663</v>
+        <v>4.0615384615384613</v>
       </c>
       <c r="O44">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>1031.4000000000001</v>
+        <v>1358</v>
       </c>
       <c r="P44">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>3.6809523809523812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.873015873015873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
       <c r="B45">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
@@ -7375,23 +7435,23 @@
       </c>
       <c r="E45">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Lee Ann],"&lt;&gt;"&amp;"")*100</f>
-        <v>15</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="G45" s="1">
         <f t="array" ref="G45">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45154</v>
+        <v>45161</v>
       </c>
       <c r="H45">
         <f t="array" ref="H45">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Lee Ann]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L45">
         <f>MIN(Season4Data[Lee Ann])</f>
@@ -7399,18 +7459,18 @@
       </c>
       <c r="M45">
         <f>AVERAGE(Season4Data[Lee Ann])</f>
-        <v>4.1166666666666663</v>
+        <v>4.0615384615384613</v>
       </c>
       <c r="O45">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>1525.8888888888889</v>
+        <v>1430.8</v>
       </c>
       <c r="P45">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>4.4111111111111114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -7428,7 +7488,7 @@
       </c>
       <c r="F46">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Sam],"&lt;&gt;"&amp;"")*100</f>
-        <v>17.857142857142858</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="G46" s="1">
         <f t="array" ref="G46">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7436,11 +7496,11 @@
       </c>
       <c r="H46">
         <f t="array" ref="H46">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Sam]))-(COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]]))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46">
         <f>MIN(Season4Data[Sam])</f>
@@ -7448,7 +7508,7 @@
       </c>
       <c r="M46">
         <f>AVERAGE(Season4Data[Sam])</f>
-        <v>4.0178571428571432</v>
+        <v>4.0166666666666666</v>
       </c>
       <c r="O46">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7459,17 +7519,17 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
@@ -7477,19 +7537,19 @@
       </c>
       <c r="F47">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Spencer],"&lt;&gt;"&amp;"")*100</f>
-        <v>23.728813559322035</v>
+        <v>23.4375</v>
       </c>
       <c r="G47" s="1">
         <f t="array" ref="G47">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45156</v>
+        <v>45162</v>
       </c>
       <c r="H47">
         <f t="array" ref="H47">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Spencer]))-(COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]]))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47">
         <f>MIN(Season4Data[Spencer])</f>
@@ -7497,40 +7557,40 @@
       </c>
       <c r="M47">
         <f>AVERAGE(Season4Data[Spencer])</f>
-        <v>3.9322033898305087</v>
+        <v>3.90625</v>
       </c>
       <c r="O47">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>1279.6428571428571</v>
+        <v>1219.1333333333334</v>
       </c>
       <c r="P47">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>4.1431972789115639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.1225396825396823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>207</v>
       </c>
       <c r="B48">
         <f>AVERAGE(B41:B47)</f>
-        <v>8.5714285714285712</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D41:D47)</f>
-        <v>4.1428571428571432</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="E48">
         <f>AVERAGE(E41:E47)</f>
-        <v>4.4285714285714288</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="F48">
         <f>AVERAGE(Season4Overall[Win Percentage])</f>
-        <v>15.490736059743325</v>
+        <v>15.436289900575616</v>
       </c>
       <c r="J48">
         <f>AVERAGE(J41:J47)</f>
-        <v>11.428571428571429</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="L48">
         <f>AVERAGE(L41:L47)</f>
@@ -7538,15 +7598,15 @@
       </c>
       <c r="M48">
         <f>AVERAGE(M41:M47)</f>
-        <v>4.0673054749931259</v>
+        <v>4.0408719256933541</v>
       </c>
       <c r="O48">
         <f>AVERAGE(Season4Data[Remaining Words])</f>
-        <v>1156.25</v>
+        <v>1169.2461538461539</v>
       </c>
       <c r="P48">
         <f>AVERAGE(Season4Data[Average Guess])</f>
-        <v>4.0542857142857143</v>
+        <v>4.0226373626373624</v>
       </c>
     </row>
   </sheetData>
@@ -7569,36 +7629,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697A79C7-C0D8-4420-B173-FCD3997E5B91}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.453125" customWidth="1"/>
-    <col min="26" max="26" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7675,7 +7735,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45100</v>
       </c>
@@ -7735,7 +7795,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45101</v>
       </c>
@@ -7795,7 +7855,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45102</v>
       </c>
@@ -7857,7 +7917,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45103</v>
       </c>
@@ -7917,7 +7977,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45104</v>
       </c>
@@ -7977,7 +8037,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45105</v>
       </c>
@@ -8037,7 +8097,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45106</v>
       </c>
@@ -8099,7 +8159,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45107</v>
       </c>
@@ -8157,7 +8217,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45108</v>
       </c>
@@ -8217,7 +8277,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45109</v>
       </c>
@@ -8277,7 +8337,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45110</v>
       </c>
@@ -8339,7 +8399,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45111</v>
       </c>
@@ -8401,7 +8461,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45112</v>
       </c>
@@ -8463,7 +8523,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45113</v>
       </c>
@@ -8525,7 +8585,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45114</v>
       </c>
@@ -8581,7 +8641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45115</v>
       </c>
@@ -8637,7 +8697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45116</v>
       </c>
@@ -8703,7 +8763,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45117</v>
       </c>
@@ -8765,7 +8825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45118</v>
       </c>
@@ -8827,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45119</v>
       </c>
@@ -8889,7 +8949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45120</v>
       </c>
@@ -8947,7 +9007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45121</v>
       </c>
@@ -9007,7 +9067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45122</v>
       </c>
@@ -9067,7 +9127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45123</v>
       </c>
@@ -9126,7 +9186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45124</v>
       </c>
@@ -9182,7 +9242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45125</v>
       </c>
@@ -9238,7 +9298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45126</v>
       </c>
@@ -9303,7 +9363,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45127</v>
       </c>
@@ -9362,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45128</v>
       </c>
@@ -9421,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45129</v>
       </c>
@@ -9483,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45130</v>
       </c>
@@ -9545,7 +9605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45131</v>
       </c>
@@ -9607,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45132</v>
       </c>
@@ -9669,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45133</v>
       </c>
@@ -9731,7 +9791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45134</v>
       </c>
@@ -9787,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45135</v>
       </c>
@@ -9843,7 +9903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45136</v>
       </c>
@@ -9908,7 +9968,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45137</v>
       </c>
@@ -9967,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45138</v>
       </c>
@@ -10026,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45139</v>
       </c>
@@ -10085,7 +10145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45140</v>
       </c>
@@ -10147,7 +10207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45141</v>
       </c>
@@ -10206,7 +10266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45142</v>
       </c>
@@ -10265,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45143</v>
       </c>
@@ -10324,7 +10384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45144</v>
       </c>
@@ -10380,7 +10440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45145</v>
       </c>
@@ -10433,7 +10493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45146</v>
       </c>
@@ -10498,7 +10558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45147</v>
       </c>
@@ -10557,7 +10617,7 @@
         <v>6.8965517241379306</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45148</v>
       </c>
@@ -10619,7 +10679,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45149</v>
       </c>
@@ -10678,7 +10738,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45150</v>
       </c>
@@ -10740,7 +10800,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45151</v>
       </c>
@@ -10799,7 +10859,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45152</v>
       </c>
@@ -10858,7 +10918,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -10917,7 +10977,7 @@
         <v>20.689655172413794</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45154</v>
       </c>
@@ -10970,7 +11030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45155</v>
       </c>
@@ -11020,7 +11080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45156</v>
       </c>
@@ -11082,7 +11142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45157</v>
       </c>
@@ -11141,7 +11201,7 @@
         <v>4.1034482758620694</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45158</v>
       </c>
@@ -11200,7 +11260,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45159</v>
       </c>
@@ -11259,7 +11319,65 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1</v>
+      </c>
+      <c r="G62" s="31"/>
+      <c r="H62" s="34">
+        <v>2686</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="32">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3</v>
+      </c>
+      <c r="L62" s="33">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="M62" s="31" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31">
+        <v>4</v>
+      </c>
+      <c r="P62" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="31">
+        <v>4</v>
+      </c>
+      <c r="R62" s="31">
+        <v>3</v>
+      </c>
+      <c r="S62" s="31">
+        <v>3</v>
+      </c>
+      <c r="T62" s="31">
+        <v>4</v>
+      </c>
+      <c r="U62" s="31">
+        <v>4</v>
+      </c>
       <c r="X62" t="s">
         <v>11</v>
       </c>
@@ -11267,7 +11385,63 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="31">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31">
+        <v>2991</v>
+      </c>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="32">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>4</v>
+      </c>
+      <c r="L63" s="33">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="M63" s="31" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31">
+        <v>5</v>
+      </c>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31">
+        <v>5</v>
+      </c>
+      <c r="R63" s="31">
+        <v>4</v>
+      </c>
+      <c r="S63" s="31">
+        <v>4</v>
+      </c>
+      <c r="T63" s="31">
+        <v>6</v>
+      </c>
+      <c r="U63" s="31">
+        <v>5</v>
+      </c>
       <c r="X63" t="s">
         <v>13</v>
       </c>
@@ -11275,7 +11449,63 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31">
+        <v>575</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3</v>
+      </c>
+      <c r="L64" s="33">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="M64" s="31" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31">
+        <v>4</v>
+      </c>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31">
+        <v>3</v>
+      </c>
+      <c r="R64" s="31">
+        <v>3</v>
+      </c>
+      <c r="S64" s="31">
+        <v>4</v>
+      </c>
+      <c r="T64" s="31">
+        <v>4</v>
+      </c>
+      <c r="U64" s="31">
+        <v>3</v>
+      </c>
       <c r="X64" t="s">
         <v>1</v>
       </c>
@@ -11283,7 +11513,63 @@
         <v>3.9285714285714284</v>
       </c>
     </row>
-    <row r="65" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31">
+        <v>372</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="32">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3</v>
+      </c>
+      <c r="L65" s="33">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="M65" s="31" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31">
+        <v>3</v>
+      </c>
+      <c r="P65" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="31">
+        <v>4</v>
+      </c>
+      <c r="R65" s="31">
+        <v>4</v>
+      </c>
+      <c r="S65" s="31">
+        <v>4</v>
+      </c>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31">
+        <v>3</v>
+      </c>
       <c r="X65" t="s">
         <v>16</v>
       </c>
@@ -11291,7 +11577,65 @@
         <v>4.068965517241379</v>
       </c>
     </row>
-    <row r="68" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45164</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="31">
+        <v>2</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31">
+        <v>2</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="32">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>2</v>
+      </c>
+      <c r="L66" s="33">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M66" s="31" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31">
+        <v>2</v>
+      </c>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31">
+        <v>2</v>
+      </c>
+      <c r="R66" s="31">
+        <v>3</v>
+      </c>
+      <c r="S66" s="31">
+        <v>2</v>
+      </c>
+      <c r="T66" s="31">
+        <v>2</v>
+      </c>
+      <c r="U66" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X68" s="26" t="s">
         <v>376</v>
       </c>
@@ -11305,7 +11649,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X69" t="s">
         <v>4</v>
       </c>
@@ -11313,7 +11657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X70" t="s">
         <v>6</v>
       </c>
@@ -11321,7 +11665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X71" t="s">
         <v>2</v>
       </c>
@@ -11329,7 +11673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X72" t="s">
         <v>11</v>
       </c>
@@ -11337,7 +11681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X73" t="s">
         <v>13</v>
       </c>
@@ -11345,7 +11689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X74" t="s">
         <v>1</v>
       </c>
@@ -11353,7 +11697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X75" t="s">
         <v>16</v>
       </c>
@@ -11361,7 +11705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X78" s="26" t="s">
         <v>540</v>
       </c>
@@ -11375,7 +11719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X79" t="s">
         <v>4</v>
       </c>
@@ -11383,7 +11727,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X80" t="s">
         <v>6</v>
       </c>
@@ -11391,7 +11735,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="81" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X81" t="s">
         <v>2</v>
       </c>
@@ -11399,7 +11743,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="82" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X82" t="s">
         <v>11</v>
       </c>
@@ -11407,7 +11751,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="83" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X83" t="s">
         <v>13</v>
       </c>
@@ -11415,7 +11759,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="84" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X84" t="s">
         <v>1</v>
       </c>
@@ -11423,7 +11767,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="85" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X85" t="s">
         <v>16</v>
       </c>
@@ -11431,7 +11775,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="88" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X88" s="26" t="s">
         <v>541</v>
       </c>
@@ -11445,7 +11789,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X89" t="s">
         <v>4</v>
       </c>
@@ -11453,7 +11797,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="90" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X90" t="s">
         <v>6</v>
       </c>
@@ -11461,7 +11805,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="91" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X91" t="s">
         <v>2</v>
       </c>
@@ -11469,7 +11813,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X92" t="s">
         <v>11</v>
       </c>
@@ -11477,7 +11821,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X93" t="s">
         <v>13</v>
       </c>
@@ -11485,7 +11829,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="94" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X94" t="s">
         <v>1</v>
       </c>
@@ -11493,7 +11837,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="95" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X95" t="s">
         <v>16</v>
       </c>
@@ -11501,7 +11845,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="98" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="98" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X98" s="26" t="s">
         <v>204</v>
       </c>
@@ -11515,7 +11859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X99" t="s">
         <v>4</v>
       </c>
@@ -11523,7 +11867,7 @@
         <v>1548.5</v>
       </c>
     </row>
-    <row r="100" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X100" t="s">
         <v>6</v>
       </c>
@@ -11531,7 +11875,7 @@
         <v>344.66666666666669</v>
       </c>
     </row>
-    <row r="101" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X101" t="s">
         <v>2</v>
       </c>
@@ -11539,7 +11883,7 @@
         <v>2319.4</v>
       </c>
     </row>
-    <row r="102" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X102" t="s">
         <v>11</v>
       </c>
@@ -11547,7 +11891,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="103" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X103" t="s">
         <v>13</v>
       </c>
@@ -11555,7 +11899,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="104" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X104" t="s">
         <v>1</v>
       </c>
@@ -11563,7 +11907,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="105" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X105" t="s">
         <v>16</v>
       </c>
@@ -11571,7 +11915,7 @@
         <v>416.5</v>
       </c>
     </row>
-    <row r="108" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X108" s="26" t="s">
         <v>239</v>
       </c>
@@ -11585,7 +11929,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X109" t="s">
         <v>4</v>
       </c>
@@ -11593,7 +11937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X110" t="s">
         <v>6</v>
       </c>
@@ -11601,7 +11945,7 @@
         <v>3.9841269841269842</v>
       </c>
     </row>
-    <row r="111" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X111" t="s">
         <v>2</v>
       </c>
@@ -11609,7 +11953,7 @@
         <v>4.1047619047619044</v>
       </c>
     </row>
-    <row r="112" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X112" t="s">
         <v>11</v>
       </c>
@@ -11617,7 +11961,7 @@
         <v>3.6809523809523812</v>
       </c>
     </row>
-    <row r="113" spans="24:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="24:25" x14ac:dyDescent="0.2">
       <c r="X113" t="s">
         <v>13</v>
       </c>
@@ -11625,7 +11969,7 @@
         <v>4.4761904761904763</v>
       </c>
     </row>
-    <row r="114" spans="24:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="24:25" x14ac:dyDescent="0.2">
       <c r="X114" t="s">
         <v>1</v>
       </c>
@@ -11633,7 +11977,7 @@
         <v>4.1580952380952372</v>
       </c>
     </row>
-    <row r="115" spans="24:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="24:25" x14ac:dyDescent="0.2">
       <c r="X115" t="s">
         <v>16</v>
       </c>
@@ -11642,17 +11986,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:U61">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+  <conditionalFormatting sqref="O2:U66">
+    <cfRule type="containsBlanks" dxfId="138" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="137" priority="2">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
       <formula>"Season4Data[Best Guess]"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11672,32 +12016,32 @@
       <selection activeCell="M2" sqref="M2:M93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.453125" customWidth="1"/>
-    <col min="26" max="26" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11774,7 +12118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45008</v>
       </c>
@@ -11842,7 +12186,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45009</v>
       </c>
@@ -11910,7 +12254,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45010</v>
       </c>
@@ -11978,7 +12322,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45011</v>
       </c>
@@ -12038,7 +12382,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45012</v>
       </c>
@@ -12106,7 +12450,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45013</v>
       </c>
@@ -12174,7 +12518,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45014</v>
       </c>
@@ -12242,7 +12586,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45015</v>
       </c>
@@ -12310,7 +12654,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45016</v>
       </c>
@@ -12378,7 +12722,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45017</v>
       </c>
@@ -12446,7 +12790,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45018</v>
       </c>
@@ -12514,7 +12858,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45019</v>
       </c>
@@ -12582,7 +12926,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45020</v>
       </c>
@@ -12650,7 +12994,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45021</v>
       </c>
@@ -12718,7 +13062,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45022</v>
       </c>
@@ -12774,7 +13118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45023</v>
       </c>
@@ -12830,7 +13174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45024</v>
       </c>
@@ -12898,7 +13242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45025</v>
       </c>
@@ -12966,7 +13310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45026</v>
       </c>
@@ -13034,7 +13378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45027</v>
       </c>
@@ -13102,7 +13446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45028</v>
       </c>
@@ -13170,7 +13514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45029</v>
       </c>
@@ -13238,7 +13582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45030</v>
       </c>
@@ -13306,7 +13650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45031</v>
       </c>
@@ -13374,7 +13718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45032</v>
       </c>
@@ -13430,7 +13774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45033</v>
       </c>
@@ -13486,7 +13830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45034</v>
       </c>
@@ -13554,7 +13898,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45035</v>
       </c>
@@ -13616,7 +13960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45036</v>
       </c>
@@ -13678,7 +14022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45037</v>
       </c>
@@ -13740,7 +14084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45038</v>
       </c>
@@ -13802,7 +14146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45039</v>
       </c>
@@ -13864,7 +14208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45040</v>
       </c>
@@ -13926,7 +14270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45041</v>
       </c>
@@ -13988,7 +14332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45042</v>
       </c>
@@ -14044,7 +14388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45043</v>
       </c>
@@ -14100,7 +14444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45044</v>
       </c>
@@ -14168,7 +14512,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45045</v>
       </c>
@@ -14230,7 +14574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45046</v>
       </c>
@@ -14292,7 +14636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45047</v>
       </c>
@@ -14354,7 +14698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45048</v>
       </c>
@@ -14416,7 +14760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45049</v>
       </c>
@@ -14478,7 +14822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45050</v>
       </c>
@@ -14540,7 +14884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45051</v>
       </c>
@@ -14598,7 +14942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45052</v>
       </c>
@@ -14650,7 +14994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45053</v>
       </c>
@@ -14704,7 +15048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45054</v>
       </c>
@@ -14768,7 +15112,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45055</v>
       </c>
@@ -14826,7 +15170,7 @@
         <v>9.7826086956521738</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45056</v>
       </c>
@@ -14886,7 +15230,7 @@
         <v>19.117647058823529</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45057</v>
       </c>
@@ -14948,7 +15292,7 @@
         <v>15.217391304347828</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45058</v>
       </c>
@@ -15010,7 +15354,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45059</v>
       </c>
@@ -15072,7 +15416,7 @@
         <v>14.130434782608695</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45060</v>
       </c>
@@ -15134,7 +15478,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45061</v>
       </c>
@@ -15196,7 +15540,7 @@
         <v>20.652173913043477</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45062</v>
       </c>
@@ -15252,7 +15596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45063</v>
       </c>
@@ -15306,7 +15650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45064</v>
       </c>
@@ -15374,7 +15718,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45065</v>
       </c>
@@ -15442,7 +15786,7 @@
         <v>4.0978260869565215</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45066</v>
       </c>
@@ -15510,7 +15854,7 @@
         <v>3.9411764705882355</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45067</v>
       </c>
@@ -15576,7 +15920,7 @@
         <v>3.9891304347826089</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45068</v>
       </c>
@@ -15644,7 +15988,7 @@
         <v>4.0549450549450547</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45069</v>
       </c>
@@ -15712,7 +16056,7 @@
         <v>3.8804347826086958</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45070</v>
       </c>
@@ -15780,7 +16124,7 @@
         <v>3.9090909090909092</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45071</v>
       </c>
@@ -15843,7 +16187,7 @@
         <v>4.0434782608695654</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45072</v>
       </c>
@@ -15897,7 +16241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45073</v>
       </c>
@@ -15951,7 +16295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45074</v>
       </c>
@@ -16017,7 +16361,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45075</v>
       </c>
@@ -16081,7 +16425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45076</v>
       </c>
@@ -16145,7 +16489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45077</v>
       </c>
@@ -16211,7 +16555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45078</v>
       </c>
@@ -16279,7 +16623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45079</v>
       </c>
@@ -16347,7 +16691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45080</v>
       </c>
@@ -16411,7 +16755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45081</v>
       </c>
@@ -16479,7 +16823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45082</v>
       </c>
@@ -16535,7 +16879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45083</v>
       </c>
@@ -16591,7 +16935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45084</v>
       </c>
@@ -16655,7 +16999,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45085</v>
       </c>
@@ -16721,7 +17065,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45086</v>
       </c>
@@ -16789,7 +17133,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45087</v>
       </c>
@@ -16857,7 +17201,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45088</v>
       </c>
@@ -16923,7 +17267,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45089</v>
       </c>
@@ -16989,7 +17333,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45090</v>
       </c>
@@ -17057,7 +17401,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45091</v>
       </c>
@@ -17125,7 +17469,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45092</v>
       </c>
@@ -17177,7 +17521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45093</v>
       </c>
@@ -17226,7 +17570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45094</v>
       </c>
@@ -17290,7 +17634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45095</v>
       </c>
@@ -17356,7 +17700,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45096</v>
       </c>
@@ -17424,7 +17768,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45097</v>
       </c>
@@ -17490,7 +17834,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45098</v>
       </c>
@@ -17556,7 +17900,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45099</v>
       </c>
@@ -17624,7 +17968,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X94" t="s">
         <v>1</v>
       </c>
@@ -17638,7 +17982,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X95" t="s">
         <v>16</v>
       </c>
@@ -17652,7 +17996,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="98" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="98" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X98" s="26" t="s">
         <v>204</v>
       </c>
@@ -17666,7 +18010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X99" t="s">
         <v>4</v>
       </c>
@@ -17680,7 +18024,7 @@
         <v>648.33333333333337</v>
       </c>
     </row>
-    <row r="100" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X100" t="s">
         <v>6</v>
       </c>
@@ -17694,7 +18038,7 @@
         <v>871.91666666666663</v>
       </c>
     </row>
-    <row r="101" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X101" t="s">
         <v>2</v>
       </c>
@@ -17708,7 +18052,7 @@
         <v>1072.8571428571429</v>
       </c>
     </row>
-    <row r="102" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X102" t="s">
         <v>11</v>
       </c>
@@ -17722,7 +18066,7 @@
         <v>1149.2307692307693</v>
       </c>
     </row>
-    <row r="103" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X103" t="s">
         <v>13</v>
       </c>
@@ -17736,7 +18080,7 @@
         <v>808.69230769230774</v>
       </c>
     </row>
-    <row r="104" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X104" t="s">
         <v>1</v>
       </c>
@@ -17750,7 +18094,7 @@
         <v>668.5454545454545</v>
       </c>
     </row>
-    <row r="105" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X105" t="s">
         <v>16</v>
       </c>
@@ -17764,7 +18108,7 @@
         <v>561.04999999999995</v>
       </c>
     </row>
-    <row r="108" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X108" s="26" t="s">
         <v>239</v>
       </c>
@@ -17778,7 +18122,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X109" t="s">
         <v>4</v>
       </c>
@@ -17792,7 +18136,7 @@
         <v>4.0312169312169317</v>
       </c>
     </row>
-    <row r="110" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X110" t="s">
         <v>6</v>
       </c>
@@ -17806,7 +18150,7 @@
         <v>3.7976190476190474</v>
       </c>
     </row>
-    <row r="111" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X111" t="s">
         <v>2</v>
       </c>
@@ -17820,7 +18164,7 @@
         <v>3.9085034013605449</v>
       </c>
     </row>
-    <row r="112" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X112" t="s">
         <v>11</v>
       </c>
@@ -17834,7 +18178,7 @@
         <v>4.0347985347985347</v>
       </c>
     </row>
-    <row r="113" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X113" t="s">
         <v>13</v>
       </c>
@@ -17848,7 +18192,7 @@
         <v>4.1739926739926743</v>
       </c>
     </row>
-    <row r="114" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X114" t="s">
         <v>1</v>
       </c>
@@ -17862,7 +18206,7 @@
         <v>3.8320346320346315</v>
       </c>
     </row>
-    <row r="115" spans="24:27" x14ac:dyDescent="0.35">
+    <row r="115" spans="24:27" x14ac:dyDescent="0.2">
       <c r="X115" t="s">
         <v>16</v>
       </c>
@@ -17879,7 +18223,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="O2:U93">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17899,26 +18243,26 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
     <col min="16" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -17980,7 +18324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44918</v>
       </c>
@@ -18040,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44919</v>
       </c>
@@ -18096,7 +18440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44920</v>
       </c>
@@ -18152,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44921</v>
       </c>
@@ -18208,7 +18552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44922</v>
       </c>
@@ -18264,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44923</v>
       </c>
@@ -18320,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44924</v>
       </c>
@@ -18376,7 +18720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44925</v>
       </c>
@@ -18432,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44926</v>
       </c>
@@ -18488,7 +18832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44927</v>
       </c>
@@ -18544,7 +18888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44928</v>
       </c>
@@ -18600,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44929</v>
       </c>
@@ -18656,7 +19000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44930</v>
       </c>
@@ -18712,7 +19056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44931</v>
       </c>
@@ -18768,7 +19112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44932</v>
       </c>
@@ -18822,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44933</v>
       </c>
@@ -18878,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44934</v>
       </c>
@@ -18932,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44935</v>
       </c>
@@ -18986,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44936</v>
       </c>
@@ -19042,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44937</v>
       </c>
@@ -19098,7 +19442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44938</v>
       </c>
@@ -19154,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44939</v>
       </c>
@@ -19210,7 +19554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44940</v>
       </c>
@@ -19266,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44941</v>
       </c>
@@ -19322,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44942</v>
       </c>
@@ -19378,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44943</v>
       </c>
@@ -19434,7 +19778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44944</v>
       </c>
@@ -19488,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44945</v>
       </c>
@@ -19544,7 +19888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44946</v>
       </c>
@@ -19600,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44947</v>
       </c>
@@ -19656,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44948</v>
       </c>
@@ -19712,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44949</v>
       </c>
@@ -19768,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44950</v>
       </c>
@@ -19824,7 +20168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44951</v>
       </c>
@@ -19880,7 +20224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44952</v>
       </c>
@@ -19936,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44953</v>
       </c>
@@ -19992,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44954</v>
       </c>
@@ -20048,7 +20392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44955</v>
       </c>
@@ -20104,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44956</v>
       </c>
@@ -20160,7 +20504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44957</v>
       </c>
@@ -20216,7 +20560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44958</v>
       </c>
@@ -20272,7 +20616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44959</v>
       </c>
@@ -20328,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44960</v>
       </c>
@@ -20382,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44961</v>
       </c>
@@ -20436,7 +20780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44962</v>
       </c>
@@ -20490,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44963</v>
       </c>
@@ -20544,7 +20888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44964</v>
       </c>
@@ -20598,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44965</v>
       </c>
@@ -20652,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44966</v>
       </c>
@@ -20706,7 +21050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44967</v>
       </c>
@@ -20762,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44968</v>
       </c>
@@ -20818,7 +21162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44969</v>
       </c>
@@ -20874,7 +21218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44970</v>
       </c>
@@ -20930,7 +21274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44971</v>
       </c>
@@ -20986,7 +21330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44972</v>
       </c>
@@ -21042,7 +21386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44973</v>
       </c>
@@ -21098,7 +21442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44974</v>
       </c>
@@ -21154,7 +21498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44975</v>
       </c>
@@ -21210,7 +21554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44976</v>
       </c>
@@ -21266,7 +21610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44977</v>
       </c>
@@ -21322,7 +21666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44978</v>
       </c>
@@ -21376,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44979</v>
       </c>
@@ -21432,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44980</v>
       </c>
@@ -21488,7 +21832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44981</v>
       </c>
@@ -21544,7 +21888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44982</v>
       </c>
@@ -21598,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44983</v>
       </c>
@@ -21652,7 +21996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44984</v>
       </c>
@@ -21706,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44985</v>
       </c>
@@ -21760,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44986</v>
       </c>
@@ -21816,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44987</v>
       </c>
@@ -21872,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44988</v>
       </c>
@@ -21926,7 +22270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44989</v>
       </c>
@@ -21980,7 +22324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44990</v>
       </c>
@@ -22034,7 +22378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44991</v>
       </c>
@@ -22088,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44992</v>
       </c>
@@ -22142,7 +22486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44993</v>
       </c>
@@ -22196,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44994</v>
       </c>
@@ -22250,7 +22594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44995</v>
       </c>
@@ -22304,7 +22648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44996</v>
       </c>
@@ -22358,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44997</v>
       </c>
@@ -22412,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44998</v>
       </c>
@@ -22466,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44999</v>
       </c>
@@ -22520,7 +22864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45000</v>
       </c>
@@ -22574,7 +22918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45001</v>
       </c>
@@ -22630,7 +22974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45002</v>
       </c>
@@ -22684,7 +23028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45003</v>
       </c>
@@ -22738,7 +23082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45004</v>
       </c>
@@ -22792,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45005</v>
       </c>
@@ -22846,7 +23190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45006</v>
       </c>
@@ -22900,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45007</v>
       </c>
@@ -22970,41 +23314,41 @@
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
     <col min="17" max="18" width="9" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" customWidth="1"/>
-    <col min="23" max="23" width="12.1796875" customWidth="1"/>
-    <col min="24" max="24" width="13.08984375" customWidth="1"/>
-    <col min="25" max="25" width="13.81640625" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="10.26953125" customWidth="1"/>
-    <col min="29" max="29" width="17.54296875" customWidth="1"/>
-    <col min="30" max="31" width="10.26953125" customWidth="1"/>
-    <col min="32" max="32" width="11.90625" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="17.5" customWidth="1"/>
+    <col min="30" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="10.26953125" customWidth="1"/>
-    <col min="37" max="37" width="10.453125" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10.5" customWidth="1"/>
     <col min="38" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="9.453125" customWidth="1"/>
-    <col min="42" max="42" width="9.453125" customWidth="1"/>
+    <col min="40" max="40" width="9.5" customWidth="1"/>
+    <col min="42" max="42" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23066,7 +23410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44826</v>
       </c>
@@ -23121,7 +23465,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44827</v>
       </c>
@@ -23233,7 +23577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44828</v>
       </c>
@@ -23339,7 +23683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44829</v>
       </c>
@@ -23445,7 +23789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44830</v>
       </c>
@@ -23551,7 +23895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44831</v>
       </c>
@@ -23657,7 +24001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44832</v>
       </c>
@@ -23763,7 +24107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44833</v>
       </c>
@@ -23869,7 +24213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44834</v>
       </c>
@@ -23975,7 +24319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -24081,7 +24425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44836</v>
       </c>
@@ -24187,7 +24531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44837</v>
       </c>
@@ -24293,7 +24637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44838</v>
       </c>
@@ -24399,7 +24743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44839</v>
       </c>
@@ -24505,7 +24849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44840</v>
       </c>
@@ -24611,7 +24955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44841</v>
       </c>
@@ -24717,7 +25061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44842</v>
       </c>
@@ -24823,7 +25167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44843</v>
       </c>
@@ -24929,7 +25273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44844</v>
       </c>
@@ -25035,7 +25379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44845</v>
       </c>
@@ -25141,7 +25485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44846</v>
       </c>
@@ -25247,7 +25591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44847</v>
       </c>
@@ -25353,7 +25697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44848</v>
       </c>
@@ -25459,7 +25803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44849</v>
       </c>
@@ -25565,7 +25909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44850</v>
       </c>
@@ -25671,7 +26015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44851</v>
       </c>
@@ -25777,7 +26121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44852</v>
       </c>
@@ -25883,7 +26227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44853</v>
       </c>
@@ -25989,7 +26333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44854</v>
       </c>
@@ -26095,7 +26439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44855</v>
       </c>
@@ -26201,7 +26545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44856</v>
       </c>
@@ -26307,7 +26651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44857</v>
       </c>
@@ -26413,7 +26757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44858</v>
       </c>
@@ -26519,7 +26863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44859</v>
       </c>
@@ -26571,7 +26915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44860</v>
       </c>
@@ -26626,7 +26970,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44861</v>
       </c>
@@ -26738,7 +27082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44862</v>
       </c>
@@ -26842,7 +27186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44863</v>
       </c>
@@ -26946,7 +27290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44864</v>
       </c>
@@ -27050,7 +27394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44865</v>
       </c>
@@ -27154,7 +27498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44866</v>
       </c>
@@ -27258,7 +27602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44867</v>
       </c>
@@ -27362,7 +27706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44868</v>
       </c>
@@ -27466,7 +27810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44869</v>
       </c>
@@ -27570,7 +27914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44870</v>
       </c>
@@ -27674,7 +28018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44871</v>
       </c>
@@ -27778,7 +28122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44872</v>
       </c>
@@ -27882,7 +28226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44873</v>
       </c>
@@ -27986,7 +28330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44874</v>
       </c>
@@ -28090,7 +28434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44875</v>
       </c>
@@ -28194,7 +28538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44876</v>
       </c>
@@ -28298,7 +28642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44877</v>
       </c>
@@ -28402,7 +28746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44878</v>
       </c>
@@ -28506,7 +28850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44879</v>
       </c>
@@ -28610,7 +28954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44880</v>
       </c>
@@ -28714,7 +29058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44881</v>
       </c>
@@ -28818,7 +29162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44882</v>
       </c>
@@ -28922,7 +29266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44883</v>
       </c>
@@ -29026,7 +29370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44884</v>
       </c>
@@ -29130,7 +29474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44885</v>
       </c>
@@ -29234,7 +29578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44886</v>
       </c>
@@ -29338,7 +29682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44887</v>
       </c>
@@ -29442,7 +29786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44888</v>
       </c>
@@ -29546,7 +29890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44889</v>
       </c>
@@ -29650,7 +29994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44890</v>
       </c>
@@ -29754,7 +30098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44891</v>
       </c>
@@ -29858,7 +30202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44892</v>
       </c>
@@ -29962,7 +30306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44893</v>
       </c>
@@ -30014,7 +30358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44894</v>
       </c>
@@ -30069,7 +30413,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44895</v>
       </c>
@@ -30181,7 +30525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44896</v>
       </c>
@@ -30287,7 +30631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44897</v>
       </c>
@@ -30393,7 +30737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44898</v>
       </c>
@@ -30499,7 +30843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44899</v>
       </c>
@@ -30605,7 +30949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44900</v>
       </c>
@@ -30711,7 +31055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44901</v>
       </c>
@@ -30817,7 +31161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44902</v>
       </c>
@@ -30923,7 +31267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44903</v>
       </c>
@@ -31029,7 +31373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44904</v>
       </c>
@@ -31135,7 +31479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44905</v>
       </c>
@@ -31241,7 +31585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44906</v>
       </c>
@@ -31347,7 +31691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44907</v>
       </c>
@@ -31453,7 +31797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44908</v>
       </c>
@@ -31559,7 +31903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44909</v>
       </c>
@@ -31665,7 +32009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44910</v>
       </c>
@@ -31771,7 +32115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44911</v>
       </c>
@@ -31877,7 +32221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44912</v>
       </c>
@@ -31983,7 +32327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44913</v>
       </c>
@@ -32089,7 +32433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44914</v>
       </c>
@@ -32195,7 +32539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44915</v>
       </c>
@@ -32301,7 +32645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44916</v>
       </c>
@@ -32407,7 +32751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44917</v>
       </c>
@@ -32513,7 +32857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="W94" s="7">
         <v>44910</v>
       </c>
@@ -32569,7 +32913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="W95" s="19">
         <v>44911</v>
       </c>
@@ -32625,7 +32969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="W96" s="7">
         <v>44912</v>
       </c>
@@ -32681,7 +33025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="23:42" x14ac:dyDescent="0.35">
+    <row r="97" spans="23:42" x14ac:dyDescent="0.2">
       <c r="W97" s="19">
         <v>44913</v>
       </c>
@@ -32737,7 +33081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="23:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="23:42" x14ac:dyDescent="0.2">
       <c r="W98" s="7">
         <v>44914</v>
       </c>
@@ -32793,7 +33137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="23:42" x14ac:dyDescent="0.35">
+    <row r="99" spans="23:42" x14ac:dyDescent="0.2">
       <c r="W99" s="19">
         <v>44915</v>
       </c>
@@ -32849,7 +33193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="23:42" x14ac:dyDescent="0.35">
+    <row r="100" spans="23:42" x14ac:dyDescent="0.2">
       <c r="W100" s="7">
         <v>44916</v>
       </c>
@@ -32905,7 +33249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="23:42" x14ac:dyDescent="0.35">
+    <row r="101" spans="23:42" x14ac:dyDescent="0.2">
       <c r="W101" s="24">
         <v>44917</v>
       </c>
@@ -32963,7 +33307,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI38:AP68">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Wordle Group Results.xlsx
+++ b/data/Wordle Group Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianspencer/Documents/GitHub/wordle/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D9B9E1-FD60-A940-8E49-E869764B05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C840D03-463B-6849-81AF-D8D0D8E701BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" tabRatio="642" activeTab="1" xr2:uid="{9CF507EB-1BFD-487F-B619-C1323D8E19B5}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="20780" tabRatio="642" activeTab="1" xr2:uid="{9CF507EB-1BFD-487F-B619-C1323D8E19B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="746">
   <si>
     <t>Date</t>
   </si>
@@ -2267,6 +2267,15 @@
   </si>
   <si>
     <t>Choir</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>Write</t>
   </si>
 </sst>
 </file>
@@ -2487,10 +2496,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5569,8 +5578,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U66" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
-  <autoFilter ref="A1:U66" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D691CA6C-2060-43BD-B6D0-81E79FA5F211}" name="Season4Data" displayName="Season4Data" ref="A1:U68" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
+  <autoFilter ref="A1:U68" xr:uid="{5EF9BA9D-CFC1-43C8-9987-E2F4970F881B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U61">
     <sortCondition ref="A1:A61"/>
   </sortState>
@@ -7231,11 +7240,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
@@ -7243,11 +7252,11 @@
       </c>
       <c r="F41">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Brian],"&lt;&gt;"&amp;"")*100</f>
-        <v>20.3125</v>
+        <v>21.212121212121211</v>
       </c>
       <c r="G41" s="1">
         <f t="array" ref="G41">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45164</v>
+        <v>45166</v>
       </c>
       <c r="H41">
         <f t="array" ref="H41">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
@@ -7263,15 +7272,15 @@
       </c>
       <c r="M41">
         <f>AVERAGE(Season4Data[Brian])</f>
-        <v>4</v>
+        <v>4.0151515151515156</v>
       </c>
       <c r="O41">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>812.58333333333337</v>
+        <v>911.69230769230774</v>
       </c>
       <c r="P41">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>3.700396825396826</v>
+        <v>3.7849816849816853</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -7300,7 +7309,7 @@
       </c>
       <c r="H42">
         <f t="array" ref="H42">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Elisabeth]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
@@ -7329,7 +7338,7 @@
       </c>
       <c r="B43">
         <f>COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]))</f>
@@ -7337,23 +7346,23 @@
       </c>
       <c r="E43">
         <f>SUMPRODUCT(--(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]]),--(Season4Data[Tiebreakers]=FALSE))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Kendall],"&lt;&gt;"&amp;"")*100</f>
-        <v>12.307692307692308</v>
+        <v>13.432835820895523</v>
       </c>
       <c r="G43" s="1">
         <f t="array" ref="G43">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="H43">
         <f t="array" ref="H43">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Kendall]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L43">
         <f>MIN(Season4Data[Kendall])</f>
@@ -7361,15 +7370,15 @@
       </c>
       <c r="M43">
         <f>AVERAGE(Season4Data[Kendall])</f>
-        <v>4.0615384615384613</v>
+        <v>4.0298507462686564</v>
       </c>
       <c r="O43">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
-        <v>1747.625</v>
+        <v>1569.2222222222222</v>
       </c>
       <c r="P43">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Average Guess])</f>
-        <v>4.020833333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -7390,7 +7399,7 @@
       </c>
       <c r="F44">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Kimball],"&lt;&gt;"&amp;"")*100</f>
-        <v>9.2307692307692317</v>
+        <v>8.9552238805970141</v>
       </c>
       <c r="G44" s="1">
         <f t="array" ref="G44">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7398,7 +7407,7 @@
       </c>
       <c r="H44">
         <f t="array" ref="H44">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Kimball]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
@@ -7410,7 +7419,7 @@
       </c>
       <c r="M44">
         <f>AVERAGE(Season4Data[Kimball])</f>
-        <v>4.0615384615384613</v>
+        <v>4.0746268656716422</v>
       </c>
       <c r="O44">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7439,7 +7448,7 @@
       </c>
       <c r="F45">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Lee Ann],"&lt;&gt;"&amp;"")*100</f>
-        <v>15.384615384615385</v>
+        <v>14.925373134328357</v>
       </c>
       <c r="G45" s="1">
         <f t="array" ref="G45">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7447,11 +7456,11 @@
       </c>
       <c r="H45">
         <f t="array" ref="H45">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Lee Ann]))-COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L45">
         <f>MIN(Season4Data[Lee Ann])</f>
@@ -7459,7 +7468,7 @@
       </c>
       <c r="M45">
         <f>AVERAGE(Season4Data[Lee Ann])</f>
-        <v>4.0615384615384613</v>
+        <v>4.0597014925373136</v>
       </c>
       <c r="O45">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7488,7 +7497,7 @@
       </c>
       <c r="F46">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Sam],"&lt;&gt;"&amp;"")*100</f>
-        <v>16.666666666666664</v>
+        <v>16.393442622950818</v>
       </c>
       <c r="G46" s="1">
         <f t="array" ref="G46">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7496,7 +7505,7 @@
       </c>
       <c r="H46">
         <f t="array" ref="H46">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Sam]))-(COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]]))</f>
@@ -7508,7 +7517,7 @@
       </c>
       <c r="M46">
         <f>AVERAGE(Season4Data[Sam])</f>
-        <v>4.0166666666666666</v>
+        <v>4.0163934426229506</v>
       </c>
       <c r="O46">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7537,7 +7546,7 @@
       </c>
       <c r="F47">
         <f>Season4Overall[[#This Row],[Solo]]/COUNTIF(Season4Data[Spencer],"&lt;&gt;"&amp;"")*100</f>
-        <v>23.4375</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="G47" s="1">
         <f t="array" ref="G47">MAX(IF(Season4Data[Winner]=Season4Overall[[#This Row],[Person:]],Season4Data[Date]))</f>
@@ -7545,7 +7554,7 @@
       </c>
       <c r="H47">
         <f t="array" ref="H47">DATEDIF(Season4Overall[[#This Row],[Last Win]],MAX(Season4Data[Date]),"d")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <f>SUMPRODUCT(--(Season4Data[Best Guess]=Season4Data[Spencer]))-(COUNTIF(Season4Data[Winner],Season4Overall[[#This Row],[Person:]]))</f>
@@ -7557,7 +7566,7 @@
       </c>
       <c r="M47">
         <f>AVERAGE(Season4Data[Spencer])</f>
-        <v>3.90625</v>
+        <v>3.9545454545454546</v>
       </c>
       <c r="O47">
         <f>AVERAGEIF(Season4Data[Word Picker],Season4Overall[[#This Row],[Person:]],Season4Data[Remaining Words])</f>
@@ -7574,23 +7583,23 @@
       </c>
       <c r="B48">
         <f>AVERAGE(B41:B47)</f>
-        <v>9.2857142857142865</v>
+        <v>9.5714285714285712</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D41:D47)</f>
-        <v>4.7142857142857144</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="E48">
         <f>AVERAGE(E41:E47)</f>
-        <v>4.5714285714285712</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="F48">
         <f>AVERAGE(Season4Overall[Win Percentage])</f>
-        <v>15.436289900575616</v>
+        <v>15.480079301778764</v>
       </c>
       <c r="J48">
         <f>AVERAGE(J41:J47)</f>
-        <v>12.571428571428571</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="L48">
         <f>AVERAGE(L41:L47)</f>
@@ -7598,15 +7607,15 @@
       </c>
       <c r="M48">
         <f>AVERAGE(M41:M47)</f>
-        <v>4.0408719256933541</v>
+        <v>4.0469772779098516</v>
       </c>
       <c r="O48">
         <f>AVERAGE(Season4Data[Remaining Words])</f>
-        <v>1169.2461538461539</v>
+        <v>1167.8208955223881</v>
       </c>
       <c r="P48">
         <f>AVERAGE(Season4Data[Average Guess])</f>
-        <v>4.0226373626373624</v>
+        <v>4.03141435678749</v>
       </c>
     </row>
   </sheetData>
@@ -7629,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697A79C7-C0D8-4420-B173-FCD3997E5B91}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11323,59 +11332,55 @@
       <c r="A62" s="1">
         <v>45160</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
         <v>735</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" t="s">
         <v>736</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="31">
-        <v>1</v>
-      </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="34">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="31">
         <v>2686</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="32">
+      <c r="K62" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.7142857142857144</v>
       </c>
-      <c r="M62" s="31" t="b">
+      <c r="M62" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31">
-        <v>4</v>
-      </c>
-      <c r="P62" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="31">
-        <v>4</v>
-      </c>
-      <c r="R62" s="31">
-        <v>3</v>
-      </c>
-      <c r="S62" s="31">
-        <v>3</v>
-      </c>
-      <c r="T62" s="31">
-        <v>4</v>
-      </c>
-      <c r="U62" s="31">
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
         <v>4</v>
       </c>
       <c r="X62" t="s">
@@ -11389,57 +11394,52 @@
       <c r="A63" s="1">
         <v>45161</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" t="s">
         <v>737</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" t="s">
         <v>738</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="31">
-        <v>1</v>
-      </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>2991</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="32">
+      <c r="K63" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="M63" s="31" t="b">
+      <c r="M63" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31">
-        <v>5</v>
-      </c>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31">
-        <v>5</v>
-      </c>
-      <c r="R63" s="31">
-        <v>4</v>
-      </c>
-      <c r="S63" s="31">
-        <v>4</v>
-      </c>
-      <c r="T63" s="31">
-        <v>6</v>
-      </c>
-      <c r="U63" s="31">
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="U63">
         <v>5</v>
       </c>
       <c r="X63" t="s">
@@ -11453,57 +11453,52 @@
       <c r="A64" s="1">
         <v>45162</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" t="s">
         <v>739</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="31">
-        <v>1</v>
-      </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>575</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="32">
+      <c r="K64" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L64" s="33">
+      <c r="L64" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.5</v>
       </c>
-      <c r="M64" s="31" t="b">
+      <c r="M64" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31">
-        <v>4</v>
-      </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31">
-        <v>3</v>
-      </c>
-      <c r="R64" s="31">
-        <v>3</v>
-      </c>
-      <c r="S64" s="31">
-        <v>4</v>
-      </c>
-      <c r="T64" s="31">
-        <v>4</v>
-      </c>
-      <c r="U64" s="31">
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="U64">
         <v>3</v>
       </c>
       <c r="X64" t="s">
@@ -11517,57 +11512,52 @@
       <c r="A65" s="1">
         <v>45163</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" t="s">
         <v>740</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="31">
-        <v>1</v>
-      </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31">
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>372</v>
       </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="32">
+      <c r="K65" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3</v>
       </c>
-      <c r="L65" s="33">
+      <c r="L65" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="M65" s="31" t="b">
+      <c r="M65" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31">
-        <v>3</v>
-      </c>
-      <c r="P65" s="31">
-        <v>5</v>
-      </c>
-      <c r="Q65" s="31">
-        <v>4</v>
-      </c>
-      <c r="R65" s="31">
-        <v>4</v>
-      </c>
-      <c r="S65" s="31">
-        <v>4</v>
-      </c>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31">
+      <c r="O65">
+        <v>3</v>
+      </c>
+      <c r="P65">
+        <v>5</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="U65">
         <v>3</v>
       </c>
       <c r="X65" t="s">
@@ -11581,61 +11571,168 @@
       <c r="A66" s="1">
         <v>45164</v>
       </c>
-      <c r="B66" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="31" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>741</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" t="s">
         <v>742</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="31">
-        <v>2</v>
-      </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31">
-        <v>2</v>
-      </c>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="32">
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="K66" s="15">
         <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2</v>
       </c>
-      <c r="L66" s="33">
+      <c r="L66" s="29">
         <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="M66" s="31" t="b">
+      <c r="M66" t="b">
         <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31">
-        <v>2</v>
-      </c>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31">
-        <v>2</v>
-      </c>
-      <c r="R66" s="31">
-        <v>3</v>
-      </c>
-      <c r="S66" s="31">
-        <v>2</v>
-      </c>
-      <c r="T66" s="31">
-        <v>2</v>
-      </c>
-      <c r="U66" s="31">
-        <v>3</v>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="32">
+        <v>1</v>
+      </c>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32">
+        <v>2101</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="33">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3</v>
+      </c>
+      <c r="L67" s="34">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>4.8</v>
+      </c>
+      <c r="M67" s="32" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32">
+        <v>6</v>
+      </c>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32">
+        <v>3</v>
+      </c>
+      <c r="R67" s="32">
+        <v>5</v>
+      </c>
+      <c r="S67" s="32">
+        <v>5</v>
+      </c>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="32">
+        <v>1</v>
+      </c>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32">
+        <v>142</v>
+      </c>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="33">
+        <f>MIN(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3</v>
+      </c>
+      <c r="L68" s="34">
+        <f>AVERAGE(Season4Data[[#This Row],[Brian]:[Spencer]])</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="M68" s="32" t="b">
+        <f>IF(COUNTIF(Season4Data[[#This Row],[Brian]:[Spencer]], Season3Data[[#This Row],[Best Guess]]) &gt; 1, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32">
+        <v>3</v>
+      </c>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32">
+        <v>3</v>
+      </c>
+      <c r="R68" s="32">
+        <v>4</v>
+      </c>
+      <c r="S68" s="32">
+        <v>3</v>
+      </c>
+      <c r="T68" s="32">
+        <v>4</v>
+      </c>
+      <c r="U68" s="32">
+        <v>6</v>
+      </c>
       <c r="X68" s="26" t="s">
         <v>376</v>
       </c>
@@ -11986,7 +12083,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:U66">
+  <conditionalFormatting sqref="O2:U68">
     <cfRule type="containsBlanks" dxfId="138" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
